--- a/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
+++ b/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Documents/CMCM Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/CMCM JM Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065332CE-C01C-204F-8726-0CC1363CEC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED3E414-E416-E24B-AAAC-4F654F90B0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="164">
   <si>
     <t>curvilinear</t>
   </si>
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB3C47-5A75-7B42-A854-C31509C645B3}">
   <dimension ref="A1:AS56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1300,7 +1300,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>46</v>
@@ -1385,7 +1385,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>30</v>
@@ -1470,7 +1470,7 @@
         <v>46</v>
       </c>
       <c r="G5" s="52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>33</v>
@@ -1546,7 +1546,7 @@
         <v>46</v>
       </c>
       <c r="G6" s="52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6" t="s">
         <v>34</v>
@@ -1622,7 +1622,7 @@
         <v>30</v>
       </c>
       <c r="G7" s="52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="26"/>
@@ -1661,7 +1661,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1741,7 +1741,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" t="s">
         <v>142</v>
@@ -1790,7 +1790,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M11" t="s">
         <v>27</v>
@@ -1848,7 +1848,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>28</v>
@@ -1907,7 +1907,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>28</v>
@@ -1960,7 +1960,7 @@
         <v>46</v>
       </c>
       <c r="G14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="20" t="s">
         <v>29</v>
@@ -1984,6 +1984,7 @@
       <c r="U14" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="X14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
@@ -2041,11 +2042,9 @@
         <v>157</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="X15" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="X15" s="26"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="26"/>
       <c r="AK15" s="26"/>
@@ -2078,7 +2077,7 @@
         <v>30</v>
       </c>
       <c r="G16" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16" s="55" t="s">
         <v>30</v>
@@ -2108,9 +2107,7 @@
       <c r="W16" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="X16" s="18" t="s">
-        <v>90</v>
-      </c>
+      <c r="X16" s="26"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="26"/>
@@ -2143,7 +2140,7 @@
         <v>46</v>
       </c>
       <c r="G17" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" s="55" t="s">
         <v>30</v>
@@ -2168,17 +2165,12 @@
         <v>32</v>
       </c>
       <c r="V17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="W17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="X17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
+      <c r="X17" s="26"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
@@ -2211,7 +2203,7 @@
         <v>46</v>
       </c>
       <c r="G18" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K18" t="s">
         <v>161</v>
@@ -2235,18 +2227,13 @@
       <c r="S18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="U18" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="V18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="W18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="X18" s="18" t="s">
-        <v>90</v>
-      </c>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
@@ -2279,7 +2266,7 @@
         <v>30</v>
       </c>
       <c r="G19" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M19" s="18" t="s">
         <v>125</v>
@@ -2300,18 +2287,13 @@
       <c r="S19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="U19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="U19" t="s">
+        <v>103</v>
+      </c>
+      <c r="X19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
@@ -2347,18 +2329,14 @@
         <v>1</v>
       </c>
       <c r="P20" s="2"/>
-      <c r="U20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="V20" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="W20" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="X20" s="18" t="s">
-        <v>55</v>
-      </c>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="X20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
@@ -2391,21 +2369,16 @@
         <v>46</v>
       </c>
       <c r="G21" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" s="2"/>
-      <c r="U21" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="V21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="X21" s="26"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
@@ -2438,7 +2411,7 @@
         <v>46</v>
       </c>
       <c r="G22" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" t="s">
         <v>142</v>
@@ -2485,7 +2458,7 @@
         <v>30</v>
       </c>
       <c r="G23" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23" t="s">
         <v>27</v>
@@ -2505,9 +2478,6 @@
       </c>
       <c r="S23" t="s">
         <v>26</v>
-      </c>
-      <c r="U23" t="s">
-        <v>103</v>
       </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
@@ -2541,7 +2511,7 @@
         <v>30</v>
       </c>
       <c r="G24" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>28</v>
@@ -2561,10 +2531,6 @@
       </c>
       <c r="S24" s="35" t="s">
         <v>57</v>
-      </c>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
@@ -2598,7 +2564,7 @@
         <v>46</v>
       </c>
       <c r="G25" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>28</v>
@@ -2618,9 +2584,6 @@
       </c>
       <c r="S25" s="35" t="s">
         <v>57</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
@@ -2672,7 +2635,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="26"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="26"/>
       <c r="M27" s="20" t="s">
         <v>29</v>
       </c>
@@ -2706,10 +2669,10 @@
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="30"/>
       <c r="G28" s="2"/>
       <c r="M28" s="55" t="s">
         <v>30</v>
@@ -2743,6 +2706,12 @@
       <c r="AS28" s="2"/>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
       <c r="M29" s="55" t="s">
         <v>30</v>
       </c>
@@ -2954,6 +2923,7 @@
       <c r="F56" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
+++ b/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/CMCM JM Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED3E414-E416-E24B-AAAC-4F654F90B0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8657D5F5-A164-D149-9A44-5FE1D012E7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="V4.3 current" sheetId="13" r:id="rId1"/>
-    <sheet name="V4.2" sheetId="12" r:id="rId2"/>
-    <sheet name="v4.1" sheetId="11" r:id="rId3"/>
-    <sheet name="v3" sheetId="10" r:id="rId4"/>
-    <sheet name="v2.1 (separate new old)" sheetId="8" r:id="rId5"/>
-    <sheet name="v2.1 old follow new" sheetId="6" r:id="rId6"/>
-    <sheet name="v2.1 mix old-new test" sheetId="9" r:id="rId7"/>
-    <sheet name="v2" sheetId="4" r:id="rId8"/>
-    <sheet name="v1.2" sheetId="2" r:id="rId9"/>
-    <sheet name="v1" sheetId="1" r:id="rId10"/>
+    <sheet name="V5 current" sheetId="13" r:id="rId1"/>
+    <sheet name="V4.3" sheetId="14" r:id="rId2"/>
+    <sheet name="V4.2" sheetId="12" r:id="rId3"/>
+    <sheet name="v4.1" sheetId="11" r:id="rId4"/>
+    <sheet name="v3" sheetId="10" r:id="rId5"/>
+    <sheet name="v2.1 (separate new old)" sheetId="8" r:id="rId6"/>
+    <sheet name="v2.1 old follow new" sheetId="6" r:id="rId7"/>
+    <sheet name="v2.1 mix old-new test" sheetId="9" r:id="rId8"/>
+    <sheet name="v2" sheetId="4" r:id="rId9"/>
+    <sheet name="v1.2" sheetId="2" r:id="rId10"/>
+    <sheet name="v1" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="174">
   <si>
     <t>curvilinear</t>
   </si>
@@ -527,6 +528,36 @@
   <si>
     <t>Consistent is curvilinear</t>
   </si>
+  <si>
+    <t>PreTest Q Order</t>
+  </si>
+  <si>
+    <t>Test Q Order</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PreTest Q Order Lengend</t>
+  </si>
+  <si>
+    <t>1st Q framing</t>
+  </si>
+  <si>
+    <t>2nd Q framing</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Test Q Order Lengend</t>
+  </si>
 </sst>
 </file>
 
@@ -602,7 +633,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,6 +718,54 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -700,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,6 +901,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,1489 +1250,1697 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB3C47-5A75-7B42-A854-C31509C645B3}">
-  <dimension ref="A1:AS56"/>
+  <dimension ref="A1:AU56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.83203125" customWidth="1"/>
-    <col min="43" max="43" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="9" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.1640625" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" customWidth="1"/>
+    <col min="28" max="28" width="11.33203125" customWidth="1"/>
+    <col min="29" max="29" width="13" customWidth="1"/>
+    <col min="45" max="45" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="I1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
-      <c r="AQ1" s="50"/>
+      <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2" s="52">
         <v>1</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="52">
-        <v>1</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="52">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="52">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="52">
+        <v>1</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="52">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="52">
+        <v>1</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="33"/>
       <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="AL2" s="33"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
-      <c r="AQ2" s="26"/>
+      <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="52">
         <v>2</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="52">
-        <v>1</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="52">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="52">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>59</v>
+        <v>166</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="52">
+        <v>1</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="52">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="52">
+        <v>1</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>166</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="P3" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="W3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="6">
-        <v>1</v>
-      </c>
-      <c r="W3" s="6">
-        <v>2</v>
-      </c>
       <c r="X3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="6">
         <v>3</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="AA3" s="6">
         <v>4</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="AB3" s="6">
         <v>8</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AC3" s="6">
         <v>7</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AD3" s="6">
         <v>6</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AE3" s="6">
         <v>5</v>
       </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
-      <c r="AQ3" s="26"/>
+      <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="52">
         <v>3</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="52">
-        <v>1</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="52">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="52">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>53</v>
+        <v>166</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="52">
+        <v>1</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="52">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="52">
+        <v>1</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>167</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="O4" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="26" t="s">
+      <c r="R4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
         <v>4</v>
       </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
         <v>3</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>7</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>5</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>8</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>6</v>
       </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
-      <c r="AQ4" s="26"/>
+      <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" s="52">
         <v>4</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="52">
-        <v>1</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="52">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="52">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="52">
+        <v>1</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="52">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="52">
+        <v>1</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>28</v>
-      </c>
       <c r="P5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="Q5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" s="18" t="s">
+      <c r="S5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="6">
+      <c r="X5" s="6">
         <v>3</v>
       </c>
-      <c r="W5" s="6">
-        <v>1</v>
-      </c>
-      <c r="X5" s="6">
+      <c r="Y5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="6">
         <v>4</v>
       </c>
-      <c r="Y5" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="6">
+      <c r="AA5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="6">
         <v>6</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AC5" s="6">
         <v>8</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AD5" s="6">
         <v>5</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AE5" s="6">
         <v>7</v>
       </c>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
-      <c r="AQ5" s="26"/>
+      <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" s="52">
         <v>5</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="52">
-        <v>1</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="52">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="52">
-        <v>2</v>
-      </c>
-      <c r="M6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="52">
+        <v>1</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="52">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="52">
+        <v>2</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="O6" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="Q6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>4</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>3</v>
       </c>
-      <c r="X6">
-        <v>2</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
       <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
         <v>5</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>6</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>7</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>8</v>
       </c>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
-      <c r="AQ6" s="26"/>
+      <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" s="52">
         <v>6</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="52">
-        <v>1</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="52">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="52">
-        <v>2</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
+        <v>167</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="52">
+        <v>1</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="52">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="52">
+        <v>2</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="O7" s="2"/>
       <c r="P7" s="26"/>
-      <c r="Q7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
-      <c r="AQ7" s="26"/>
+      <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-    </row>
-    <row r="8" spans="1:45" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+    </row>
+    <row r="8" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="53">
         <v>7</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="53">
-        <v>2</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="53">
+        <v>167</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="53">
+        <v>2</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="53">
         <v>3</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="53">
-        <v>2</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="G8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="53">
+        <v>2</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>166</v>
+      </c>
       <c r="P8" s="4"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="33"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
+      <c r="AL8" s="33"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
-      <c r="AQ8" s="26"/>
+      <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS8" s="26"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" s="53">
         <v>8</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="53">
-        <v>2</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="53">
+        <v>167</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="53">
+        <v>2</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="53">
         <v>3</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="53">
-        <v>2</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="G9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="53">
+        <v>2</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
+      <c r="AA9" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
-      <c r="AQ9" s="26"/>
+      <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" s="53">
         <v>9</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="53">
-        <v>2</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="53">
+        <v>167</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="53">
+        <v>2</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="53">
         <v>3</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="53">
-        <v>1</v>
+      <c r="G10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="53">
+        <v>1</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="L10" t="s">
+        <v>81</v>
       </c>
       <c r="M10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
         <v>142</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>126</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>143</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>126</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="26"/>
+      <c r="AB10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK10" s="2"/>
       <c r="AL10" s="26"/>
       <c r="AM10" s="26"/>
       <c r="AN10" s="26"/>
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11" s="53">
         <v>10</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="53">
-        <v>2</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="53">
+        <v>166</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="53">
+        <v>2</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="53">
         <v>4</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="53">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="G11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="53">
+        <v>1</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" t="s">
         <v>27</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>25</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>27</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>25</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="V11" s="4" t="s">
+      <c r="W11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="X11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26"/>
+      <c r="AA11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK11" s="2"/>
       <c r="AL11" s="26"/>
       <c r="AM11" s="26"/>
       <c r="AN11" s="26"/>
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" s="53">
         <v>11</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="53">
-        <v>2</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="53">
+        <v>166</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="53">
+        <v>2</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="53">
         <v>4</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="53">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="35" t="s">
+      <c r="G12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="53">
+        <v>1</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O12" s="35" t="s">
+      <c r="M12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="35" t="s">
+      <c r="R12" s="2"/>
+      <c r="S12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="S12" s="35" t="s">
+      <c r="U12" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="U12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V12" s="4" t="s">
+      <c r="W12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="26"/>
+      <c r="AA12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK12" s="2"/>
       <c r="AL12" s="26"/>
       <c r="AM12" s="26"/>
       <c r="AN12" s="26"/>
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="2"/>
-      <c r="AS12" s="2"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" s="53">
         <v>12</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="53">
-        <v>2</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="53">
+        <v>166</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="53">
+        <v>2</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="53">
         <v>4</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="53">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="35" t="s">
+      <c r="G13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="53">
+        <v>1</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="O13" s="35" t="s">
+      <c r="Q13" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R13" s="35" t="s">
+      <c r="R13" s="2"/>
+      <c r="S13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="S13" s="35" t="s">
+      <c r="U13" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="26"/>
       <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
+      <c r="AL13" s="26"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
-      <c r="AQ13" s="26"/>
+      <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="9">
+        <v>166</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9">
         <v>3</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="9">
-        <v>2</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="37" t="s">
+      <c r="E14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="Q14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" s="37" t="s">
+      <c r="R14" s="2"/>
+      <c r="S14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="S14" s="37" t="s">
+      <c r="U14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="X14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
+      <c r="Z14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="26"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AR14" s="26"/>
+      <c r="AS14" s="26"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="9">
+        <v>166</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="9">
         <v>3</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="9">
-        <v>2</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="37" t="s">
+      <c r="E15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="9">
+        <v>2</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="37" t="s">
+      <c r="Q15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="37" t="s">
+      <c r="R15" s="2"/>
+      <c r="S15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="S15" s="37" t="s">
+      <c r="U15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="X15" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="X15" s="26"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="2"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="26"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="9">
+        <v>166</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="9">
         <v>3</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="9">
-        <v>2</v>
-      </c>
-      <c r="M16" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="36" t="s">
+      <c r="E16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="O16" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="36" t="s">
+      <c r="Q16" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" s="36" t="s">
+      <c r="R16" s="2"/>
+      <c r="S16" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="S16" s="36" t="s">
+      <c r="U16" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="18" t="s">
+      <c r="W16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V16" s="18" t="s">
+      <c r="X16" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="W16" s="18" t="s">
+      <c r="Y16" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="X16" s="26"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="26"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="26"/>
       <c r="AQ16" s="26"/>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="2"/>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="9">
+        <v>167</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9">
         <v>3</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="9">
-        <v>2</v>
-      </c>
-      <c r="M17" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="36" t="s">
+      <c r="E17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="Q17" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17" s="36" t="s">
+      <c r="R17" s="2"/>
+      <c r="S17" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="S17" s="36" t="s">
+      <c r="U17" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="W17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="X17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="Y17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="X17" s="26"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
+      <c r="Z17" s="26"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
-      <c r="AQ17" s="26"/>
+      <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
-      <c r="AS17" s="2"/>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="9">
+        <v>167</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="9">
         <v>3</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="E18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="s">
         <v>161</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="O18" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="P18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="Q18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="18" t="s">
+      <c r="R18" s="2"/>
+      <c r="S18" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="T18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="U18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
       <c r="W18" s="26"/>
       <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
       <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
       <c r="AB18" s="26"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
-      <c r="AQ18" s="26"/>
+      <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
-      <c r="AS18" s="2"/>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="9">
+        <v>167</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="9">
         <v>3</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="M19" s="18" t="s">
+      <c r="E19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="P19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="Q19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="18" t="s">
+      <c r="R19" s="2"/>
+      <c r="S19" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="T19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="U19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="U19" t="s">
+      <c r="W19" t="s">
         <v>103</v>
       </c>
-      <c r="X19" s="26"/>
       <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
-      <c r="AQ19" s="26"/>
+      <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS19" s="26"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="10">
+        <v>167</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10">
         <v>4</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="E20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="10">
         <v>3</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4" t="s">
+      <c r="G20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="X20" s="26"/>
       <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
       <c r="AB20" s="26"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
-      <c r="AQ20" s="26"/>
+      <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
-      <c r="AS20" s="2"/>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS20" s="26"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="10">
+        <v>167</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="10">
         <v>4</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="E21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="10">
         <v>3</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="V21" s="4" t="s">
+      <c r="G21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="X21" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="X21" s="26"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
+      <c r="Z21" s="26"/>
       <c r="AB21" s="4"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
-      <c r="AQ21" s="26"/>
+      <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
-      <c r="AS21" s="2"/>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="10">
+        <v>167</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="10">
         <v>4</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="E22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="10">
         <v>3</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="10">
-        <v>2</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="G22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" t="s">
         <v>142</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
         <v>138</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s">
+      <c r="R22" s="2"/>
+      <c r="S22" t="s">
         <v>143</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T22" t="s">
         <v>138</v>
       </c>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
-      <c r="AQ22" s="26"/>
+      <c r="AQ22" s="2"/>
       <c r="AR22" s="2"/>
-      <c r="AS22" s="2"/>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="10">
+        <v>166</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="10">
         <v>4</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="E23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="10">
         <v>4</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="10">
-        <v>2</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="G23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="O23" t="s">
         <v>27</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>25</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s">
+      <c r="R23" s="2"/>
+      <c r="S23" t="s">
         <v>27</v>
       </c>
-      <c r="R23" t="s">
+      <c r="T23" t="s">
         <v>25</v>
       </c>
-      <c r="S23" t="s">
+      <c r="U23" t="s">
         <v>26</v>
       </c>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
-      <c r="AQ23" s="26"/>
+      <c r="AQ23" s="2"/>
       <c r="AR23" s="2"/>
-      <c r="AS23" s="2"/>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="10">
+        <v>166</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="10">
         <v>4</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="E24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="10">
         <v>4</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="10">
-        <v>2</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="35" t="s">
+      <c r="G24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="10">
+        <v>2</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="O24" s="35" t="s">
+      <c r="Q24" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24" s="35" t="s">
+      <c r="R24" s="2"/>
+      <c r="S24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T24" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="S24" s="35" t="s">
+      <c r="U24" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
-      <c r="AQ24" s="26"/>
+      <c r="AQ24" s="2"/>
       <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="10">
+        <v>166</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="10">
         <v>4</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="E25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="10">
         <v>4</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="10">
-        <v>2</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" s="35" t="s">
+      <c r="G25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="10">
+        <v>2</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="O25" s="35" t="s">
+      <c r="Q25" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25" s="35" t="s">
+      <c r="R25" s="2"/>
+      <c r="S25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T25" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="S25" s="35" t="s">
+      <c r="U25" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
-      <c r="AQ25" s="26"/>
+      <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
-      <c r="AS25" s="2"/>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="M26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="37" t="s">
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="O26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="O26" s="37" t="s">
+      <c r="Q26" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="R26" s="37" t="s">
+      <c r="R26" s="2"/>
+      <c r="S26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="S26" s="37" t="s">
+      <c r="U26" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
@@ -2628,35 +2950,36 @@
       <c r="AQ26" s="2"/>
       <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="26"/>
-      <c r="M27" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" s="37" t="s">
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="O27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="O27" s="37" t="s">
+      <c r="Q27" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="R27" s="37" t="s">
+      <c r="R27" s="2"/>
+      <c r="S27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="S27" s="37" t="s">
+      <c r="U27" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
@@ -2666,35 +2989,36 @@
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
       <c r="AS27" s="2"/>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="2"/>
-      <c r="M28" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="N28" s="36" t="s">
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="2"/>
+      <c r="O28" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="O28" s="36" t="s">
+      <c r="Q28" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28" s="36" t="s">
+      <c r="R28" s="2"/>
+      <c r="S28" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="S28" s="36" t="s">
+      <c r="U28" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
@@ -2704,223 +3028,226 @@
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
       <c r="AS28" s="2"/>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="M29" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" s="36" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="O29" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="O29" s="36" t="s">
+      <c r="Q29" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="R29" s="36" t="s">
+      <c r="R29" s="2"/>
+      <c r="S29" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="36" t="s">
+      <c r="U29" s="36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="D30" s="5"/>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="M30" s="18" t="s">
+      <c r="G30" s="5"/>
+      <c r="O30" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="P30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O30" s="6" t="s">
+      <c r="Q30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="18" t="s">
+      <c r="R30" s="2"/>
+      <c r="S30" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="R30" s="6" t="s">
+      <c r="T30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S30" s="6" t="s">
+      <c r="U30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ30" s="5"/>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="D31" s="27"/>
+      <c r="AS30" s="5"/>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="M31" s="18" t="s">
+      <c r="G31" s="27"/>
+      <c r="O31" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="P31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="6" t="s">
+      <c r="Q31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="18" t="s">
+      <c r="R31" s="2"/>
+      <c r="S31" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="T31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S31" s="6" t="s">
+      <c r="U31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ31" s="27"/>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="D32" s="29"/>
+      <c r="AS31" s="27"/>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
       <c r="E32" s="29"/>
-      <c r="F32" s="28"/>
-      <c r="P32" s="2"/>
-      <c r="AQ32" s="28"/>
-    </row>
-    <row r="33" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D33" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="28"/>
+      <c r="R32" s="2"/>
+      <c r="AS32" s="28"/>
+    </row>
+    <row r="33" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E33" s="29"/>
-      <c r="F33" s="31"/>
-      <c r="AQ33" s="28"/>
-    </row>
-    <row r="34" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D34" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="31"/>
+      <c r="AS33" s="28"/>
+    </row>
+    <row r="34" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E34" s="29"/>
-      <c r="F34" s="31"/>
-      <c r="AQ34" s="28"/>
-    </row>
-    <row r="35" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D35" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="31"/>
+      <c r="AS34" s="28"/>
+    </row>
+    <row r="35" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E35" s="29"/>
-      <c r="F35" s="31"/>
-      <c r="AQ35" s="28"/>
-    </row>
-    <row r="36" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D36" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="31"/>
+      <c r="AS35" s="28"/>
+    </row>
+    <row r="36" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E36" s="29"/>
-      <c r="F36" s="28"/>
-      <c r="AQ36" s="28"/>
-    </row>
-    <row r="37" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D37" s="4"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="28"/>
+      <c r="AS36" s="28"/>
+    </row>
+    <row r="37" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="AQ37" s="4"/>
-    </row>
-    <row r="38" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D38" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="AS37" s="4"/>
+    </row>
+    <row r="38" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="AQ38" s="4"/>
-    </row>
-    <row r="39" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D39" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="AS38" s="4"/>
+    </row>
+    <row r="39" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E39" s="4"/>
-      <c r="F39" s="26"/>
-      <c r="AQ39" s="4"/>
-    </row>
-    <row r="40" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="F40" s="33"/>
-      <c r="AQ40" s="3"/>
-    </row>
-    <row r="41" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D41" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="26"/>
+      <c r="AS39" s="4"/>
+    </row>
+    <row r="40" spans="5:45" x14ac:dyDescent="0.2">
+      <c r="G40" s="33"/>
+      <c r="AS40" s="3"/>
+    </row>
+    <row r="41" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E41" s="4"/>
-      <c r="F41" s="34"/>
-      <c r="AQ41" s="19"/>
-    </row>
-    <row r="42" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D42" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="34"/>
+      <c r="AS41" s="19"/>
+    </row>
+    <row r="42" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E42" s="4"/>
-      <c r="F42" s="34"/>
-      <c r="AQ42" s="19"/>
-    </row>
-    <row r="43" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D43" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="34"/>
+      <c r="AS42" s="19"/>
+    </row>
+    <row r="43" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E43" s="4"/>
-      <c r="F43" s="34"/>
-      <c r="AQ43" s="19"/>
-    </row>
-    <row r="44" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D44" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="34"/>
+      <c r="AS43" s="19"/>
+    </row>
+    <row r="44" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E44" s="4"/>
-      <c r="F44" s="34"/>
-      <c r="AQ44" s="19"/>
-    </row>
-    <row r="45" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D45" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="34"/>
+      <c r="AS44" s="19"/>
+    </row>
+    <row r="45" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E45" s="4"/>
-      <c r="F45" s="34"/>
-      <c r="AQ45" s="19"/>
-    </row>
-    <row r="46" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D46" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="34"/>
+      <c r="AS45" s="19"/>
+    </row>
+    <row r="46" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E46" s="4"/>
-      <c r="F46" s="34"/>
-      <c r="AQ46" s="19"/>
-    </row>
-    <row r="47" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D47" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="34"/>
+      <c r="AS46" s="19"/>
+    </row>
+    <row r="47" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E47" s="4"/>
-      <c r="F47" s="34"/>
-      <c r="AQ47" s="19"/>
-    </row>
-    <row r="48" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D48" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="34"/>
+      <c r="AS47" s="19"/>
+    </row>
+    <row r="48" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E48" s="4"/>
-      <c r="F48" s="34"/>
-      <c r="AQ48" s="19"/>
-    </row>
-    <row r="49" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D49" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="34"/>
+      <c r="AS48" s="19"/>
+    </row>
+    <row r="49" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E49" s="4"/>
-      <c r="F49" s="34"/>
-      <c r="AQ49" s="19"/>
-    </row>
-    <row r="50" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D50" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="34"/>
+      <c r="AS49" s="19"/>
+    </row>
+    <row r="50" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E50" s="4"/>
-      <c r="F50" s="34"/>
-      <c r="AQ50" s="19"/>
-    </row>
-    <row r="51" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D51" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="34"/>
+      <c r="AS50" s="19"/>
+    </row>
+    <row r="51" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E51" s="4"/>
-      <c r="F51" s="34"/>
-      <c r="AQ51" s="19"/>
-    </row>
-    <row r="52" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D52" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="34"/>
+      <c r="AS51" s="19"/>
+    </row>
+    <row r="52" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E52" s="4"/>
-      <c r="F52" s="34"/>
-      <c r="AQ52" s="19"/>
-    </row>
-    <row r="53" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D53" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="34"/>
+      <c r="AS52" s="19"/>
+    </row>
+    <row r="53" spans="5:45" x14ac:dyDescent="0.2">
       <c r="E53" s="4"/>
-      <c r="F53" s="34"/>
-      <c r="AQ53" s="19"/>
-    </row>
-    <row r="54" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="F56" s="2"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="34"/>
+      <c r="AS53" s="19"/>
+    </row>
+    <row r="54" spans="5:45" x14ac:dyDescent="0.2">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="5:45" x14ac:dyDescent="0.2">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="5:45" x14ac:dyDescent="0.2">
+      <c r="G56" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2929,6 +3256,834 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D0D7EB-2EB9-3E49-8A16-5719E90F24DE}">
+  <dimension ref="A1:U54"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" customWidth="1"/>
+    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>4</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>4</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16">
+        <v>5</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16">
+        <v>5</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16">
+        <v>5</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>6</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>6</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>6</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>6</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="B28" s="48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F296D44-E05E-42A5-B057-2A486BC41237}">
   <dimension ref="A1:U25"/>
   <sheetViews>
@@ -3521,6 +4676,3473 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3FA6-040E-8F44-9CCF-7CCC90B2E7C6}">
+  <dimension ref="A1:AS56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="V1" s="27"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A2" s="58">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="58">
+        <v>1</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="58">
+        <v>1</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="58">
+        <v>1</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB2" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A3" s="58">
+        <v>2</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="58">
+        <v>1</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="58">
+        <v>1</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="58">
+        <v>2</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="28"/>
+      <c r="M3" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="59">
+        <v>1</v>
+      </c>
+      <c r="W3" s="59">
+        <v>2</v>
+      </c>
+      <c r="X3" s="59">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="59">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="59">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="59">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="59">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="59">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="28"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A4" s="58">
+        <v>3</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="58">
+        <v>1</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="58">
+        <v>1</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="58">
+        <v>3</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="28">
+        <v>2</v>
+      </c>
+      <c r="W4" s="28">
+        <v>4</v>
+      </c>
+      <c r="X4" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="28">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="28">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="28">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="28">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="28">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28"/>
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="28"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A5" s="58">
+        <v>4</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="58">
+        <v>1</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="58">
+        <v>2</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="58">
+        <v>4</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="59">
+        <v>3</v>
+      </c>
+      <c r="W5" s="59">
+        <v>1</v>
+      </c>
+      <c r="X5" s="59">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="59">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="59">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="59">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="59">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="59">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="29"/>
+      <c r="AR5" s="28"/>
+      <c r="AS5" s="28"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A6" s="58">
+        <v>5</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="58">
+        <v>1</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="58">
+        <v>2</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="58">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="28">
+        <v>4</v>
+      </c>
+      <c r="W6" s="28">
+        <v>3</v>
+      </c>
+      <c r="X6" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="28">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="28">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="28">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="28">
+        <v>8</v>
+      </c>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="29"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A7" s="58">
+        <v>6</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="58">
+        <v>1</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="58">
+        <v>2</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="58">
+        <v>6</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A8" s="61">
+        <v>7</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="61">
+        <v>2</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="61">
+        <v>3</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="61">
+        <v>1</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="28"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A9" s="61">
+        <v>8</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="61">
+        <v>2</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="61">
+        <v>3</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="61">
+        <v>2</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="27"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="V9" s="27"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="28"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A10" s="61">
+        <v>9</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="61">
+        <v>2</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="61">
+        <v>3</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="61">
+        <v>3</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="29"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="28"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A11" s="61">
+        <v>10</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="61">
+        <v>2</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="61">
+        <v>4</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="61">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="28"/>
+      <c r="U11" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="V11" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="28"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A12" s="61">
+        <v>11</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="61">
+        <v>2</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="61">
+        <v>4</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="61">
+        <v>5</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="T12" s="28"/>
+      <c r="U12" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="28"/>
+      <c r="AS12" s="28"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A13" s="61">
+        <v>12</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="61">
+        <v>2</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="61">
+        <v>4</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="61">
+        <v>6</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="28"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="28"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="28"/>
+      <c r="AS13" s="28"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A14" s="64">
+        <v>13</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="64">
+        <v>3</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="64">
+        <v>1</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="64">
+        <v>1</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="S14" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" s="28"/>
+      <c r="U14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="V14" s="27"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A15" s="64">
+        <v>14</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="64">
+        <v>3</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="64">
+        <v>1</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="64">
+        <v>2</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="S15" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="W15" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="29"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A16" s="64">
+        <v>15</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="64">
+        <v>3</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="64">
+        <v>1</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="64">
+        <v>3</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16" s="28"/>
+      <c r="U16" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="W16" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="X16" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="28"/>
+      <c r="AS16" s="28"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A17" s="64">
+        <v>16</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="64">
+        <v>3</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="64">
+        <v>2</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="64">
+        <v>4</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="S17" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="T17" s="28"/>
+      <c r="U17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W17" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="X17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="28"/>
+      <c r="AS17" s="28"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A18" s="64">
+        <v>17</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="64">
+        <v>3</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="64">
+        <v>2</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="64">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="N18" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="R18" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="S18" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="T18" s="28"/>
+      <c r="U18" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="V18" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="W18" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="X18" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="28"/>
+      <c r="AS18" s="28"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A19" s="64">
+        <v>18</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="64">
+        <v>3</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="64">
+        <v>2</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="64">
+        <v>6</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="N19" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="R19" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="T19" s="28"/>
+      <c r="U19" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="V19" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="W19" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="X19" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="28"/>
+      <c r="AS19" s="28"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A20" s="69">
+        <v>19</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="69">
+        <v>4</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="69">
+        <v>3</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="69">
+        <v>1</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="V20" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="W20" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="X20" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="28"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A21" s="69">
+        <v>20</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="69">
+        <v>4</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="69">
+        <v>3</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="69">
+        <v>2</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="W21" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="X21" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="28"/>
+      <c r="AS21" s="28"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A22" s="69">
+        <v>21</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="69">
+        <v>4</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="69">
+        <v>3</v>
+      </c>
+      <c r="F22" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="69">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="R22" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="28"/>
+      <c r="AS22" s="28"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A23" s="69">
+        <v>22</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="69">
+        <v>4</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="69">
+        <v>4</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="69">
+        <v>4</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="28"/>
+      <c r="AQ23" s="29"/>
+      <c r="AR23" s="28"/>
+      <c r="AS23" s="28"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A24" s="69">
+        <v>23</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="69">
+        <v>4</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="69">
+        <v>4</v>
+      </c>
+      <c r="F24" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="69">
+        <v>5</v>
+      </c>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="S24" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="T24" s="28"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="28"/>
+      <c r="AS24" s="28"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A25" s="69">
+        <v>24</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="69">
+        <v>4</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="69">
+        <v>4</v>
+      </c>
+      <c r="F25" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="69">
+        <v>6</v>
+      </c>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="O25" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28"/>
+      <c r="AQ25" s="29"/>
+      <c r="AR25" s="28"/>
+      <c r="AS25" s="28"/>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="S26" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="28"/>
+      <c r="AQ26" s="28"/>
+      <c r="AR26" s="28"/>
+      <c r="AS26" s="28"/>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="R27" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="S27" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="28"/>
+      <c r="AO27" s="28"/>
+      <c r="AP27" s="28"/>
+      <c r="AQ27" s="28"/>
+      <c r="AR27" s="28"/>
+      <c r="AS27" s="28"/>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="R28" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="S28" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="28"/>
+      <c r="AN28" s="28"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="28"/>
+      <c r="AQ28" s="28"/>
+      <c r="AR28" s="28"/>
+      <c r="AS28" s="28"/>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="S29" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
+      <c r="AK29" s="28"/>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="28"/>
+      <c r="AN29" s="28"/>
+      <c r="AO29" s="28"/>
+      <c r="AP29" s="28"/>
+      <c r="AQ29" s="28"/>
+      <c r="AR29" s="28"/>
+      <c r="AS29" s="28"/>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="O30" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="R30" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="S30" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="28"/>
+      <c r="AL30" s="28"/>
+      <c r="AM30" s="28"/>
+      <c r="AN30" s="28"/>
+      <c r="AO30" s="28"/>
+      <c r="AP30" s="28"/>
+      <c r="AQ30" s="57"/>
+      <c r="AR30" s="28"/>
+      <c r="AS30" s="28"/>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="N31" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="R31" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="S31" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AH31" s="28"/>
+      <c r="AI31" s="28"/>
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="28"/>
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="28"/>
+      <c r="AP31" s="28"/>
+      <c r="AQ31" s="27"/>
+      <c r="AR31" s="28"/>
+      <c r="AS31" s="28"/>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="28"/>
+      <c r="AN32" s="28"/>
+      <c r="AO32" s="28"/>
+      <c r="AP32" s="28"/>
+      <c r="AQ32" s="28"/>
+      <c r="AR32" s="28"/>
+      <c r="AS32" s="28"/>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="28"/>
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="28"/>
+      <c r="AN33" s="28"/>
+      <c r="AO33" s="28"/>
+      <c r="AP33" s="28"/>
+      <c r="AQ33" s="28"/>
+      <c r="AR33" s="28"/>
+      <c r="AS33" s="28"/>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="28"/>
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="28"/>
+      <c r="AP34" s="28"/>
+      <c r="AQ34" s="28"/>
+      <c r="AR34" s="28"/>
+      <c r="AS34" s="28"/>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="28"/>
+      <c r="AK35" s="28"/>
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="28"/>
+      <c r="AN35" s="28"/>
+      <c r="AO35" s="28"/>
+      <c r="AP35" s="28"/>
+      <c r="AQ35" s="28"/>
+      <c r="AR35" s="28"/>
+      <c r="AS35" s="28"/>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="28"/>
+      <c r="AJ36" s="28"/>
+      <c r="AK36" s="28"/>
+      <c r="AL36" s="28"/>
+      <c r="AM36" s="28"/>
+      <c r="AN36" s="28"/>
+      <c r="AO36" s="28"/>
+      <c r="AP36" s="28"/>
+      <c r="AQ36" s="28"/>
+      <c r="AR36" s="28"/>
+      <c r="AS36" s="28"/>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="28"/>
+      <c r="AJ37" s="28"/>
+      <c r="AK37" s="28"/>
+      <c r="AL37" s="28"/>
+      <c r="AM37" s="28"/>
+      <c r="AN37" s="28"/>
+      <c r="AO37" s="28"/>
+      <c r="AP37" s="28"/>
+      <c r="AQ37" s="29"/>
+      <c r="AR37" s="28"/>
+      <c r="AS37" s="28"/>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="28"/>
+      <c r="AJ38" s="28"/>
+      <c r="AK38" s="28"/>
+      <c r="AL38" s="28"/>
+      <c r="AM38" s="28"/>
+      <c r="AN38" s="28"/>
+      <c r="AO38" s="28"/>
+      <c r="AP38" s="28"/>
+      <c r="AQ38" s="29"/>
+      <c r="AR38" s="28"/>
+      <c r="AS38" s="28"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="28"/>
+      <c r="AK39" s="28"/>
+      <c r="AL39" s="28"/>
+      <c r="AM39" s="28"/>
+      <c r="AN39" s="28"/>
+      <c r="AO39" s="28"/>
+      <c r="AP39" s="28"/>
+      <c r="AQ39" s="29"/>
+      <c r="AR39" s="28"/>
+      <c r="AS39" s="28"/>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="28"/>
+      <c r="AL40" s="28"/>
+      <c r="AM40" s="28"/>
+      <c r="AN40" s="28"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="28"/>
+      <c r="AQ40" s="27"/>
+      <c r="AR40" s="28"/>
+      <c r="AS40" s="28"/>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="28"/>
+      <c r="AJ41" s="28"/>
+      <c r="AK41" s="28"/>
+      <c r="AL41" s="28"/>
+      <c r="AM41" s="28"/>
+      <c r="AN41" s="28"/>
+      <c r="AO41" s="28"/>
+      <c r="AP41" s="28"/>
+      <c r="AQ41" s="71"/>
+      <c r="AR41" s="28"/>
+      <c r="AS41" s="28"/>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="28"/>
+      <c r="AK42" s="28"/>
+      <c r="AL42" s="28"/>
+      <c r="AM42" s="28"/>
+      <c r="AN42" s="28"/>
+      <c r="AO42" s="28"/>
+      <c r="AP42" s="28"/>
+      <c r="AQ42" s="71"/>
+      <c r="AR42" s="28"/>
+      <c r="AS42" s="28"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="28"/>
+      <c r="AH43" s="28"/>
+      <c r="AI43" s="28"/>
+      <c r="AJ43" s="28"/>
+      <c r="AK43" s="28"/>
+      <c r="AL43" s="28"/>
+      <c r="AM43" s="28"/>
+      <c r="AN43" s="28"/>
+      <c r="AO43" s="28"/>
+      <c r="AP43" s="28"/>
+      <c r="AQ43" s="71"/>
+      <c r="AR43" s="28"/>
+      <c r="AS43" s="28"/>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="28"/>
+      <c r="AH44" s="28"/>
+      <c r="AI44" s="28"/>
+      <c r="AJ44" s="28"/>
+      <c r="AK44" s="28"/>
+      <c r="AL44" s="28"/>
+      <c r="AM44" s="28"/>
+      <c r="AN44" s="28"/>
+      <c r="AO44" s="28"/>
+      <c r="AP44" s="28"/>
+      <c r="AQ44" s="71"/>
+      <c r="AR44" s="28"/>
+      <c r="AS44" s="28"/>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="28"/>
+      <c r="AG45" s="28"/>
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="28"/>
+      <c r="AJ45" s="28"/>
+      <c r="AK45" s="28"/>
+      <c r="AL45" s="28"/>
+      <c r="AM45" s="28"/>
+      <c r="AN45" s="28"/>
+      <c r="AO45" s="28"/>
+      <c r="AP45" s="28"/>
+      <c r="AQ45" s="71"/>
+      <c r="AR45" s="28"/>
+      <c r="AS45" s="28"/>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="28"/>
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="28"/>
+      <c r="AJ46" s="28"/>
+      <c r="AK46" s="28"/>
+      <c r="AL46" s="28"/>
+      <c r="AM46" s="28"/>
+      <c r="AN46" s="28"/>
+      <c r="AO46" s="28"/>
+      <c r="AP46" s="28"/>
+      <c r="AQ46" s="71"/>
+      <c r="AR46" s="28"/>
+      <c r="AS46" s="28"/>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="28"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="28"/>
+      <c r="AI47" s="28"/>
+      <c r="AJ47" s="28"/>
+      <c r="AK47" s="28"/>
+      <c r="AL47" s="28"/>
+      <c r="AM47" s="28"/>
+      <c r="AN47" s="28"/>
+      <c r="AO47" s="28"/>
+      <c r="AP47" s="28"/>
+      <c r="AQ47" s="71"/>
+      <c r="AR47" s="28"/>
+      <c r="AS47" s="28"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="28"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="28"/>
+      <c r="AJ48" s="28"/>
+      <c r="AK48" s="28"/>
+      <c r="AL48" s="28"/>
+      <c r="AM48" s="28"/>
+      <c r="AN48" s="28"/>
+      <c r="AO48" s="28"/>
+      <c r="AP48" s="28"/>
+      <c r="AQ48" s="71"/>
+      <c r="AR48" s="28"/>
+      <c r="AS48" s="28"/>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="28"/>
+      <c r="AF49" s="28"/>
+      <c r="AG49" s="28"/>
+      <c r="AH49" s="28"/>
+      <c r="AI49" s="28"/>
+      <c r="AJ49" s="28"/>
+      <c r="AK49" s="28"/>
+      <c r="AL49" s="28"/>
+      <c r="AM49" s="28"/>
+      <c r="AN49" s="28"/>
+      <c r="AO49" s="28"/>
+      <c r="AP49" s="28"/>
+      <c r="AQ49" s="71"/>
+      <c r="AR49" s="28"/>
+      <c r="AS49" s="28"/>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
+      <c r="AF50" s="28"/>
+      <c r="AG50" s="28"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="28"/>
+      <c r="AJ50" s="28"/>
+      <c r="AK50" s="28"/>
+      <c r="AL50" s="28"/>
+      <c r="AM50" s="28"/>
+      <c r="AN50" s="28"/>
+      <c r="AO50" s="28"/>
+      <c r="AP50" s="28"/>
+      <c r="AQ50" s="71"/>
+      <c r="AR50" s="28"/>
+      <c r="AS50" s="28"/>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="28"/>
+      <c r="AD51" s="28"/>
+      <c r="AE51" s="28"/>
+      <c r="AF51" s="28"/>
+      <c r="AG51" s="28"/>
+      <c r="AH51" s="28"/>
+      <c r="AI51" s="28"/>
+      <c r="AJ51" s="28"/>
+      <c r="AK51" s="28"/>
+      <c r="AL51" s="28"/>
+      <c r="AM51" s="28"/>
+      <c r="AN51" s="28"/>
+      <c r="AO51" s="28"/>
+      <c r="AP51" s="28"/>
+      <c r="AQ51" s="71"/>
+      <c r="AR51" s="28"/>
+      <c r="AS51" s="28"/>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="28"/>
+      <c r="AD52" s="28"/>
+      <c r="AE52" s="28"/>
+      <c r="AF52" s="28"/>
+      <c r="AG52" s="28"/>
+      <c r="AH52" s="28"/>
+      <c r="AI52" s="28"/>
+      <c r="AJ52" s="28"/>
+      <c r="AK52" s="28"/>
+      <c r="AL52" s="28"/>
+      <c r="AM52" s="28"/>
+      <c r="AN52" s="28"/>
+      <c r="AO52" s="28"/>
+      <c r="AP52" s="28"/>
+      <c r="AQ52" s="71"/>
+      <c r="AR52" s="28"/>
+      <c r="AS52" s="28"/>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="28"/>
+      <c r="AC53" s="28"/>
+      <c r="AD53" s="28"/>
+      <c r="AE53" s="28"/>
+      <c r="AF53" s="28"/>
+      <c r="AG53" s="28"/>
+      <c r="AH53" s="28"/>
+      <c r="AI53" s="28"/>
+      <c r="AJ53" s="28"/>
+      <c r="AK53" s="28"/>
+      <c r="AL53" s="28"/>
+      <c r="AM53" s="28"/>
+      <c r="AN53" s="28"/>
+      <c r="AO53" s="28"/>
+      <c r="AP53" s="28"/>
+      <c r="AQ53" s="71"/>
+      <c r="AR53" s="28"/>
+      <c r="AS53" s="28"/>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
+      <c r="AD54" s="28"/>
+      <c r="AE54" s="28"/>
+      <c r="AF54" s="28"/>
+      <c r="AG54" s="28"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="28"/>
+      <c r="AJ54" s="28"/>
+      <c r="AK54" s="28"/>
+      <c r="AL54" s="28"/>
+      <c r="AM54" s="28"/>
+      <c r="AN54" s="28"/>
+      <c r="AO54" s="28"/>
+      <c r="AP54" s="28"/>
+      <c r="AQ54" s="28"/>
+      <c r="AR54" s="28"/>
+      <c r="AS54" s="28"/>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
+      <c r="AD55" s="28"/>
+      <c r="AE55" s="28"/>
+      <c r="AF55" s="28"/>
+      <c r="AG55" s="28"/>
+      <c r="AH55" s="28"/>
+      <c r="AI55" s="28"/>
+      <c r="AJ55" s="28"/>
+      <c r="AK55" s="28"/>
+      <c r="AL55" s="28"/>
+      <c r="AM55" s="28"/>
+      <c r="AN55" s="28"/>
+      <c r="AO55" s="28"/>
+      <c r="AP55" s="28"/>
+      <c r="AQ55" s="28"/>
+      <c r="AR55" s="28"/>
+      <c r="AS55" s="28"/>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="28"/>
+      <c r="AF56" s="28"/>
+      <c r="AG56" s="28"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="28"/>
+      <c r="AJ56" s="28"/>
+      <c r="AK56" s="28"/>
+      <c r="AL56" s="28"/>
+      <c r="AM56" s="28"/>
+      <c r="AN56" s="28"/>
+      <c r="AO56" s="28"/>
+      <c r="AP56" s="28"/>
+      <c r="AQ56" s="28"/>
+      <c r="AR56" s="28"/>
+      <c r="AS56" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A079066B-042E-E347-BE5A-228BE2AE89CB}">
   <dimension ref="A1:AS56"/>
   <sheetViews>
@@ -5333,7 +9955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F555E07E-282B-A54A-A5AF-7C958A3EDCB6}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
@@ -7063,7 +11685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493C1F41-1547-F04C-8D7A-FEAB418C075C}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
@@ -8286,7 +12908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FCCC63-1166-9842-ACF7-083B1F0C4B9C}">
   <dimension ref="A1:AB56"/>
   <sheetViews>
@@ -9675,7 +14297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBAF6DF-2E1E-4042-B768-F8E653EEB5F3}">
   <dimension ref="A1:AB56"/>
   <sheetViews>
@@ -10984,7 +15606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCDAFB7-A51C-404A-AA54-01C74E9500B7}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
@@ -12406,7 +17028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BFBD24-D664-844E-845B-5EA01EBCA697}">
   <dimension ref="A1:W27"/>
   <sheetViews>
@@ -13139,832 +17761,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D0D7EB-2EB9-3E49-8A16-5719E90F24DE}">
-  <dimension ref="A1:U54"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.83203125" customWidth="1"/>
-    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9">
-        <v>3</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9">
-        <v>3</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9">
-        <v>3</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
-        <v>3</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10">
-        <v>4</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10">
-        <v>4</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10">
-        <v>4</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10">
-        <v>4</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
-        <v>17</v>
-      </c>
-      <c r="B18" s="16">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16">
-        <v>5</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
-        <v>19</v>
-      </c>
-      <c r="B20" s="16">
-        <v>5</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
-        <v>20</v>
-      </c>
-      <c r="B21" s="16">
-        <v>5</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11">
-        <v>6</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11">
-        <v>6</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11">
-        <v>6</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11">
-        <v>6</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G27" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="26" x14ac:dyDescent="0.3">
-      <c r="B28" s="48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
+++ b/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/CMCM JM Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8657D5F5-A164-D149-9A44-5FE1D012E7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0FAF40-5EDF-104F-BC69-162C26A7D579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="179">
   <si>
     <t>curvilinear</t>
   </si>
@@ -557,6 +557,21 @@
   </si>
   <si>
     <t>Test Q Order Lengend</t>
+  </si>
+  <si>
+    <t>Left Side</t>
+  </si>
+  <si>
+    <t>Right Side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In test trial, the video on the left side will always be played first </t>
+  </si>
+  <si>
+    <t>Test Event Order</t>
+  </si>
+  <si>
+    <t>Test Event Legend</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1268,7 @@
   <dimension ref="A1:AU56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1266,14 +1281,14 @@
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="9" width="13.1640625" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" customWidth="1"/>
     <col min="15" max="15" width="18.1640625" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" customWidth="1"/>
-    <col min="17" max="17" width="18.83203125" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
     <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="21" max="21" width="19.83203125" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" customWidth="1"/>
     <col min="24" max="24" width="10.33203125" customWidth="1"/>
     <col min="27" max="27" width="8.6640625" customWidth="1"/>
     <col min="28" max="28" width="11.33203125" customWidth="1"/>
@@ -1304,7 +1319,7 @@
         <v>82</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>165</v>
@@ -1314,6 +1329,9 @@
       </c>
       <c r="O1" s="3" t="s">
         <v>147</v>
+      </c>
+      <c r="T1" t="s">
+        <v>161</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>148</v>
@@ -1352,8 +1370,8 @@
       <c r="G2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="52">
-        <v>1</v>
+      <c r="H2" s="52" t="s">
+        <v>30</v>
       </c>
       <c r="I2" s="52" t="s">
         <v>166</v>
@@ -1434,8 +1452,8 @@
       <c r="G3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="52">
-        <v>1</v>
+      <c r="H3" s="52" t="s">
+        <v>30</v>
       </c>
       <c r="I3" s="52" t="s">
         <v>166</v>
@@ -1525,8 +1543,8 @@
       <c r="G4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="52">
-        <v>1</v>
+      <c r="H4" s="52" t="s">
+        <v>30</v>
       </c>
       <c r="I4" s="52" t="s">
         <v>167</v>
@@ -1616,8 +1634,8 @@
       <c r="G5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="52">
-        <v>1</v>
+      <c r="H5" s="52" t="s">
+        <v>30</v>
       </c>
       <c r="I5" s="52" t="s">
         <v>167</v>
@@ -1698,8 +1716,8 @@
       <c r="G6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="52">
-        <v>2</v>
+      <c r="H6" s="52" t="s">
+        <v>43</v>
       </c>
       <c r="I6" s="52" t="s">
         <v>167</v>
@@ -1780,8 +1798,8 @@
       <c r="G7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="52">
-        <v>2</v>
+      <c r="H7" s="52" t="s">
+        <v>43</v>
       </c>
       <c r="I7" s="52" t="s">
         <v>167</v>
@@ -1825,8 +1843,8 @@
       <c r="G8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="53">
-        <v>2</v>
+      <c r="H8" s="53" t="s">
+        <v>43</v>
       </c>
       <c r="I8" s="53" t="s">
         <v>166</v>
@@ -1868,8 +1886,8 @@
       <c r="G9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="53">
-        <v>2</v>
+      <c r="H9" s="53" t="s">
+        <v>43</v>
       </c>
       <c r="I9" s="53" t="s">
         <v>166</v>
@@ -1923,8 +1941,8 @@
       <c r="G10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="53">
-        <v>1</v>
+      <c r="H10" s="53" t="s">
+        <v>30</v>
       </c>
       <c r="I10" s="53" t="s">
         <v>166</v>
@@ -1990,8 +2008,8 @@
       <c r="G11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="53">
-        <v>1</v>
+      <c r="H11" s="53" t="s">
+        <v>30</v>
       </c>
       <c r="I11" s="53" t="s">
         <v>166</v>
@@ -2072,8 +2090,8 @@
       <c r="G12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="53">
-        <v>1</v>
+      <c r="H12" s="53" t="s">
+        <v>30</v>
       </c>
       <c r="I12" s="53" t="s">
         <v>167</v>
@@ -2155,8 +2173,8 @@
       <c r="G13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="53">
-        <v>1</v>
+      <c r="H13" s="53" t="s">
+        <v>30</v>
       </c>
       <c r="I13" s="53" t="s">
         <v>167</v>
@@ -2214,8 +2232,8 @@
       <c r="G14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="9">
-        <v>2</v>
+      <c r="H14" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>167</v>
@@ -2240,7 +2258,7 @@
         <v>58</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AK14" s="2"/>
@@ -2277,8 +2295,8 @@
       <c r="G15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="9">
-        <v>2</v>
+      <c r="H15" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>167</v>
@@ -2303,10 +2321,10 @@
         <v>58</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="Z15" s="26"/>
       <c r="AK15" s="2"/>
@@ -2343,8 +2361,8 @@
       <c r="G16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="9">
-        <v>2</v>
+      <c r="H16" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>166</v>
@@ -2368,13 +2386,13 @@
       <c r="U16" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="X16" s="18" t="s">
+      <c r="W16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Y16" s="18" t="s">
+      <c r="Y16" s="4" t="s">
         <v>55</v>
       </c>
       <c r="Z16" s="26"/>
@@ -2412,8 +2430,8 @@
       <c r="G17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="9">
-        <v>2</v>
+      <c r="H17" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>166</v>
@@ -2438,7 +2456,7 @@
         <v>58</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="X17" s="4" t="s">
         <v>55</v>
@@ -2481,8 +2499,8 @@
       <c r="G18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="9">
-        <v>1</v>
+      <c r="H18" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>166</v>
@@ -2550,8 +2568,8 @@
       <c r="G19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="9">
-        <v>1</v>
+      <c r="H19" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>166</v>
@@ -2576,7 +2594,7 @@
         <v>57</v>
       </c>
       <c r="W19" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="Z19" s="26"/>
       <c r="AB19" s="26"/>
@@ -2616,17 +2634,13 @@
       <c r="G20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="10">
-        <v>1</v>
+      <c r="H20" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>167</v>
       </c>
       <c r="R20" s="2"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="Z20" s="26"/>
       <c r="AB20" s="26"/>
       <c r="AC20" s="26"/>
@@ -2665,15 +2679,15 @@
       <c r="G21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="10">
-        <v>1</v>
+      <c r="H21" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>167</v>
       </c>
       <c r="R21" s="2"/>
-      <c r="X21" s="4" t="s">
-        <v>163</v>
+      <c r="W21" t="s">
+        <v>103</v>
       </c>
       <c r="Z21" s="26"/>
       <c r="AB21" s="4"/>
@@ -2713,8 +2727,8 @@
       <c r="G22" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="10">
-        <v>2</v>
+      <c r="H22" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>167</v>
@@ -2731,6 +2745,10 @@
       </c>
       <c r="T22" t="s">
         <v>138</v>
+      </c>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
@@ -2766,8 +2784,8 @@
       <c r="G23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="10">
-        <v>2</v>
+      <c r="H23" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>167</v>
@@ -2790,6 +2808,9 @@
       </c>
       <c r="U23" t="s">
         <v>26</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
@@ -2825,8 +2846,8 @@
       <c r="G24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="10">
-        <v>2</v>
+      <c r="H24" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>166</v>
@@ -2884,8 +2905,8 @@
       <c r="G25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="10">
-        <v>2</v>
+      <c r="H25" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>166</v>

--- a/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
+++ b/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/CMCM JM Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0FAF40-5EDF-104F-BC69-162C26A7D579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1BDB49-BB26-DA40-BA8E-F72AFDD85C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="V5 current" sheetId="13" r:id="rId1"/>
-    <sheet name="V4.3" sheetId="14" r:id="rId2"/>
-    <sheet name="V4.2" sheetId="12" r:id="rId3"/>
-    <sheet name="v4.1" sheetId="11" r:id="rId4"/>
-    <sheet name="v3" sheetId="10" r:id="rId5"/>
-    <sheet name="v2.1 (separate new old)" sheetId="8" r:id="rId6"/>
-    <sheet name="v2.1 old follow new" sheetId="6" r:id="rId7"/>
-    <sheet name="v2.1 mix old-new test" sheetId="9" r:id="rId8"/>
-    <sheet name="v2" sheetId="4" r:id="rId9"/>
-    <sheet name="v1.2" sheetId="2" r:id="rId10"/>
-    <sheet name="v1" sheetId="1" r:id="rId11"/>
+    <sheet name="Variables" sheetId="15" r:id="rId1"/>
+    <sheet name="V5 current" sheetId="13" r:id="rId2"/>
+    <sheet name="V4.3" sheetId="14" r:id="rId3"/>
+    <sheet name="V4.2" sheetId="12" r:id="rId4"/>
+    <sheet name="v4.1" sheetId="11" r:id="rId5"/>
+    <sheet name="v3" sheetId="10" r:id="rId6"/>
+    <sheet name="v2.1 (separate new old)" sheetId="8" r:id="rId7"/>
+    <sheet name="v2.1 old follow new" sheetId="6" r:id="rId8"/>
+    <sheet name="v2.1 mix old-new test" sheetId="9" r:id="rId9"/>
+    <sheet name="v2" sheetId="4" r:id="rId10"/>
+    <sheet name="v1.2" sheetId="2" r:id="rId11"/>
+    <sheet name="v1" sheetId="1" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="189">
   <si>
     <t>curvilinear</t>
   </si>
@@ -572,6 +573,36 @@
   </si>
   <si>
     <t>Test Event Legend</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Counterbalance Purpose</t>
+  </si>
+  <si>
+    <t>identifies participants</t>
+  </si>
+  <si>
+    <t>counterbalances whether pariticpant get asked the positive framing or negative framing of the Q first</t>
+  </si>
+  <si>
+    <t>counterbalances the feature that is associated with 2 motion types</t>
+  </si>
+  <si>
+    <t>counterbalances whether participant see an equal number of rectilinear and curvilinear motions (but not an equal number of crosses and hearts) or an equal number of crosses and hearts (but not an equal number of  motions)</t>
+  </si>
+  <si>
+    <t>counterbalances the feature shown in testing events</t>
+  </si>
+  <si>
+    <t>counterbalances the order the familiarization videos (motion type and feature) are shown</t>
+  </si>
+  <si>
+    <t>counterbalances the order the shapes show up in familiarization and ensures that there are both curved and angular shapes that engage in each type of motion and feature</t>
+  </si>
+  <si>
+    <t>counterbalances whether inconsistent (rectilinear) or consistent (curvilinear) test event is shown first</t>
   </si>
 </sst>
 </file>
@@ -1264,11 +1295,2265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F280014F-0359-6C4E-A6CF-E9866AFD4F4E}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BFBD24-D664-844E-845B-5EA01EBCA697}">
+  <dimension ref="A1:W27"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>68</v>
+      </c>
+      <c r="V6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" t="s">
+        <v>57</v>
+      </c>
+      <c r="P24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D0D7EB-2EB9-3E49-8A16-5719E90F24DE}">
+  <dimension ref="A1:U54"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" customWidth="1"/>
+    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>4</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>4</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16">
+        <v>5</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16">
+        <v>5</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16">
+        <v>5</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>6</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>6</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>6</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>6</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="B28" s="48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F296D44-E05E-42A5-B057-2A486BC41237}">
+  <dimension ref="A1:U25"/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="U7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB3C47-5A75-7B42-A854-C31509C645B3}">
   <dimension ref="A1:AU56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3276,1427 +5561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D0D7EB-2EB9-3E49-8A16-5719E90F24DE}">
-  <dimension ref="A1:U54"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.83203125" customWidth="1"/>
-    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9">
-        <v>3</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9">
-        <v>3</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9">
-        <v>3</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
-        <v>3</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10">
-        <v>4</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10">
-        <v>4</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10">
-        <v>4</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10">
-        <v>4</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
-        <v>17</v>
-      </c>
-      <c r="B18" s="16">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16">
-        <v>5</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
-        <v>19</v>
-      </c>
-      <c r="B20" s="16">
-        <v>5</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
-        <v>20</v>
-      </c>
-      <c r="B21" s="16">
-        <v>5</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11">
-        <v>6</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11">
-        <v>6</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11">
-        <v>6</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11">
-        <v>6</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G27" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="26" x14ac:dyDescent="0.3">
-      <c r="B28" s="48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F296D44-E05E-42A5-B057-2A486BC41237}">
-  <dimension ref="A1:U25"/>
-  <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="U7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="L8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="U10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="U11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="M18" t="s">
-        <v>15</v>
-      </c>
-      <c r="R18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="M19" t="s">
-        <v>16</v>
-      </c>
-      <c r="R19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="M20" t="s">
-        <v>17</v>
-      </c>
-      <c r="R20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3FA6-040E-8F44-9CCF-7CCC90B2E7C6}">
   <dimension ref="A1:AS56"/>
   <sheetViews>
@@ -8163,7 +9028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A079066B-042E-E347-BE5A-228BE2AE89CB}">
   <dimension ref="A1:AS56"/>
   <sheetViews>
@@ -9976,7 +10841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F555E07E-282B-A54A-A5AF-7C958A3EDCB6}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
@@ -11706,7 +12571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493C1F41-1547-F04C-8D7A-FEAB418C075C}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
@@ -12929,7 +13794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FCCC63-1166-9842-ACF7-083B1F0C4B9C}">
   <dimension ref="A1:AB56"/>
   <sheetViews>
@@ -14318,7 +15183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBAF6DF-2E1E-4042-B768-F8E653EEB5F3}">
   <dimension ref="A1:AB56"/>
   <sheetViews>
@@ -15627,7 +16492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCDAFB7-A51C-404A-AA54-01C74E9500B7}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
@@ -17047,739 +17912,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BFBD24-D664-844E-845B-5EA01EBCA697}">
-  <dimension ref="A1:W27"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5" t="s">
-        <v>66</v>
-      </c>
-      <c r="V5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6" t="s">
-        <v>68</v>
-      </c>
-      <c r="V6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14" t="s">
-        <v>72</v>
-      </c>
-      <c r="W14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" t="s">
-        <v>27</v>
-      </c>
-      <c r="W15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O16" t="s">
-        <v>57</v>
-      </c>
-      <c r="P16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" t="s">
-        <v>57</v>
-      </c>
-      <c r="P17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" t="s">
-        <v>58</v>
-      </c>
-      <c r="P18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" t="s">
-        <v>57</v>
-      </c>
-      <c r="P21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" t="s">
-        <v>58</v>
-      </c>
-      <c r="P22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" t="s">
-        <v>58</v>
-      </c>
-      <c r="L23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>2</v>
-      </c>
-      <c r="K24" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" t="s">
-        <v>30</v>
-      </c>
-      <c r="N24" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" t="s">
-        <v>57</v>
-      </c>
-      <c r="P24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="J25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" t="s">
-        <v>57</v>
-      </c>
-      <c r="P25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J26" t="s">
-        <v>75</v>
-      </c>
-      <c r="K26" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" t="s">
-        <v>58</v>
-      </c>
-      <c r="P26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J27" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
+++ b/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/CMCM JM Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1BDB49-BB26-DA40-BA8E-F72AFDD85C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2345F67-A556-594F-8ACA-66FA55DD3BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="189">
   <si>
     <t>curvilinear</t>
   </si>
@@ -3552,8 +3552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB3C47-5A75-7B42-A854-C31509C645B3}">
   <dimension ref="A1:AU56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5432,6 +5432,9 @@
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
       <c r="G34" s="31"/>
+      <c r="I34" t="s">
+        <v>161</v>
+      </c>
       <c r="AS34" s="28"/>
     </row>
     <row r="35" spans="5:45" x14ac:dyDescent="0.2">

--- a/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
+++ b/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/CMCM JM Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2345F67-A556-594F-8ACA-66FA55DD3BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69CB271-55CD-FE44-9D70-FC1F2862955C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="15" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="194">
   <si>
     <t>curvilinear</t>
   </si>
@@ -603,6 +603,21 @@
   </si>
   <si>
     <t>counterbalances whether inconsistent (rectilinear) or consistent (curvilinear) test event is shown first</t>
+  </si>
+  <si>
+    <t>PreTest Event Order Lengend</t>
+  </si>
+  <si>
+    <t>Blue (Like)</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>PreTest Event Order</t>
+  </si>
+  <si>
+    <t>counterbalances the left/right placement of the pretest events (blue/organe)</t>
   </si>
 </sst>
 </file>
@@ -1296,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F280014F-0359-6C4E-A6CF-E9866AFD4F4E}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1326,65 +1341,73 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>165</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3550,78 +3573,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB3C47-5A75-7B42-A854-C31509C645B3}">
-  <dimension ref="A1:AU56"/>
+  <dimension ref="A1:AV56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="9" width="13.1640625" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" customWidth="1"/>
-    <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" customWidth="1"/>
-    <col min="27" max="27" width="8.6640625" customWidth="1"/>
-    <col min="28" max="28" width="11.33203125" customWidth="1"/>
-    <col min="29" max="29" width="13" customWidth="1"/>
-    <col min="45" max="45" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" customWidth="1"/>
+    <col min="30" max="30" width="13" customWidth="1"/>
+    <col min="46" max="46" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>161</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
@@ -3629,172 +3656,178 @@
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="50"/>
       <c r="AU1" s="2"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV1" s="2"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="52">
         <v>1</v>
       </c>
       <c r="B2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="52">
+      <c r="D2" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="52">
         <v>1</v>
       </c>
-      <c r="E2" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="52">
+      <c r="F2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="52">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>30</v>
+      <c r="H2" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="I2" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="M2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="P2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="33"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="26"/>
       <c r="AU2" s="2"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV2" s="2"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="52">
         <v>2</v>
       </c>
       <c r="B3" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="52">
+      <c r="D3" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="52">
         <v>1</v>
       </c>
-      <c r="E3" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="52">
+      <c r="F3" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="52">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="O3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="18" t="s">
-        <v>28</v>
-      </c>
       <c r="Q3" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="X3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="6">
+      <c r="Y3" s="6">
         <v>1</v>
       </c>
-      <c r="Y3" s="6">
-        <v>2</v>
-      </c>
       <c r="Z3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="6">
         <v>3</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AB3" s="6">
         <v>4</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AC3" s="6">
         <v>8</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AD3" s="6">
         <v>7</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AE3" s="6">
         <v>6</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AF3" s="6">
         <v>5</v>
       </c>
-      <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
@@ -3802,254 +3835,263 @@
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="26"/>
       <c r="AU3" s="2"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV3" s="2"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="52">
         <v>3</v>
       </c>
       <c r="B4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="52">
+      <c r="D4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="52">
         <v>1</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="52">
+      <c r="F4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="52">
         <v>1</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="L4" s="4" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="O4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="P4" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="Q4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="S4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
       <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
         <v>4</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>3</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>7</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>5</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>8</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>6</v>
       </c>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="26"/>
+      <c r="AL4" s="2"/>
       <c r="AM4" s="26"/>
-      <c r="AN4" s="2"/>
+      <c r="AN4" s="26"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="26"/>
       <c r="AU4" s="2"/>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV4" s="2"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="52">
         <v>4</v>
       </c>
       <c r="B5" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="52">
+      <c r="D5" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="52">
         <v>1</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="52">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>30</v>
+      <c r="F5" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="52">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="I5" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="18" t="s">
-        <v>30</v>
-      </c>
       <c r="Q5" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="S5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="W5" s="18" t="s">
+      <c r="T5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="6">
+      <c r="Y5" s="6">
         <v>3</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Z5" s="6">
         <v>1</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="AA5" s="6">
         <v>4</v>
       </c>
-      <c r="AA5" s="6">
-        <v>2</v>
-      </c>
       <c r="AB5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="6">
         <v>6</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AD5" s="6">
         <v>8</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AE5" s="6">
         <v>5</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AF5" s="6">
         <v>7</v>
       </c>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="26"/>
+      <c r="AL5" s="2"/>
       <c r="AM5" s="26"/>
-      <c r="AN5" s="2"/>
+      <c r="AN5" s="26"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
-      <c r="AS5" s="26"/>
-      <c r="AT5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="26"/>
       <c r="AU5" s="2"/>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV5" s="2"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="52">
         <v>5</v>
       </c>
       <c r="B6" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="52">
+      <c r="D6" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="52">
         <v>1</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="52">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="52" t="s">
+      <c r="F6" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="52">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="J6" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="R6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>4</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>3</v>
       </c>
-      <c r="Z6">
-        <v>2</v>
-      </c>
       <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
         <v>1</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>5</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>6</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>7</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>8</v>
       </c>
-      <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
@@ -4057,44 +4099,47 @@
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
-      <c r="AS6" s="26"/>
-      <c r="AT6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="26"/>
       <c r="AU6" s="2"/>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV6" s="2"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="52">
         <v>6</v>
       </c>
       <c r="B7" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="52">
+      <c r="D7" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="52">
         <v>1</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="52">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="52" t="s">
+      <c r="F7" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="52">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="J7" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="26"/>
+      <c r="P7" s="2"/>
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
-      <c r="S7" s="2"/>
-      <c r="AK7" s="2"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
@@ -4102,97 +4147,103 @@
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
-      <c r="AS7" s="26"/>
-      <c r="AT7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="26"/>
       <c r="AU7" s="2"/>
-    </row>
-    <row r="8" spans="1:47" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV7" s="2"/>
+    </row>
+    <row r="8" spans="1:48" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="53">
         <v>7</v>
       </c>
       <c r="B8" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="53">
-        <v>2</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="53">
+      <c r="D8" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="53">
+        <v>2</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="53">
         <v>3</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="J8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="2"/>
+      <c r="S8" s="4"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="33"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
-      <c r="AS8" s="26"/>
-      <c r="AT8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="26"/>
       <c r="AU8" s="2"/>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV8" s="2"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="53">
         <v>8</v>
       </c>
       <c r="B9" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="53">
-        <v>2</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="53">
+      <c r="D9" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="53">
+        <v>2</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="53">
         <v>3</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="J9" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="L9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
@@ -4200,67 +4251,70 @@
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
-      <c r="AS9" s="26"/>
-      <c r="AT9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="26"/>
       <c r="AU9" s="2"/>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV9" s="2"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" s="53">
         <v>9</v>
       </c>
       <c r="B10" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="53">
-        <v>2</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="53">
+      <c r="D10" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="53">
+        <v>2</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="53">
         <v>3</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>30</v>
+      <c r="H10" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="I10" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="L10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="M10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="P10" t="s">
         <v>142</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>126</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>143</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>126</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="26"/>
+      <c r="AL10" s="2"/>
       <c r="AM10" s="26"/>
       <c r="AN10" s="26"/>
       <c r="AO10" s="26"/>
@@ -4268,81 +4322,84 @@
       <c r="AQ10" s="26"/>
       <c r="AR10" s="26"/>
       <c r="AS10" s="26"/>
-      <c r="AT10" s="2"/>
+      <c r="AT10" s="26"/>
       <c r="AU10" s="2"/>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV10" s="2"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="53">
         <v>10</v>
       </c>
       <c r="B11" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="53">
-        <v>2</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="53">
+      <c r="D11" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="53">
+        <v>2</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="53">
         <v>4</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="L11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V11" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>26</v>
-      </c>
-      <c r="S11" t="s">
-        <v>27</v>
-      </c>
-      <c r="T11" t="s">
-        <v>25</v>
-      </c>
-      <c r="U11" t="s">
-        <v>26</v>
-      </c>
-      <c r="W11" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA11" s="4" t="s">
+      <c r="AB11" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AB11" s="4" t="s">
+      <c r="AC11" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="AC11" s="4" t="s">
+      <c r="AD11" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="26"/>
+      <c r="AL11" s="2"/>
       <c r="AM11" s="26"/>
       <c r="AN11" s="26"/>
       <c r="AO11" s="26"/>
@@ -4350,82 +4407,85 @@
       <c r="AQ11" s="26"/>
       <c r="AR11" s="26"/>
       <c r="AS11" s="26"/>
-      <c r="AT11" s="2"/>
+      <c r="AT11" s="26"/>
       <c r="AU11" s="2"/>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV11" s="2"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="53">
         <v>11</v>
       </c>
       <c r="B12" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="53">
-        <v>2</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="53">
+      <c r="D12" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="53">
+        <v>2</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="53">
         <v>4</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="L12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="R12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="35" t="s">
+      <c r="V12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q12" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA12" s="4" t="s">
+      <c r="AB12" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AB12" s="4" t="s">
+      <c r="AC12" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="AC12" s="4" t="s">
+      <c r="AD12" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="26"/>
+      <c r="AL12" s="2"/>
       <c r="AM12" s="26"/>
       <c r="AN12" s="26"/>
       <c r="AO12" s="26"/>
@@ -4433,324 +4493,342 @@
       <c r="AQ12" s="26"/>
       <c r="AR12" s="26"/>
       <c r="AS12" s="26"/>
-      <c r="AT12" s="2"/>
+      <c r="AT12" s="26"/>
       <c r="AU12" s="2"/>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV12" s="2"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" s="53">
         <v>12</v>
       </c>
       <c r="B13" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="53">
-        <v>2</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="53">
+      <c r="D13" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="53">
+        <v>2</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="53">
         <v>4</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>30</v>
+      <c r="H13" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="I13" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="35" t="s">
+      <c r="P13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q13" s="35" t="s">
+      <c r="R13" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T13" s="35" t="s">
+      <c r="S13" s="2"/>
+      <c r="T13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="U13" s="35" t="s">
+      <c r="V13" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="26"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
-      <c r="AS13" s="26"/>
-      <c r="AT13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="26"/>
       <c r="AU13" s="2"/>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV13" s="2"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="D14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="9">
         <v>3</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="9">
         <v>1</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="O14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="37" t="s">
+      <c r="P14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="R14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="T14" s="37" t="s">
+      <c r="S14" s="2"/>
+      <c r="T14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="U14" s="37" t="s">
+      <c r="V14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Z14" s="2"/>
-      <c r="AK14" s="2"/>
+      <c r="AA14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
-      <c r="AP14" s="26"/>
+      <c r="AP14" s="2"/>
       <c r="AQ14" s="26"/>
       <c r="AR14" s="26"/>
       <c r="AS14" s="26"/>
-      <c r="AT14" s="2"/>
+      <c r="AT14" s="26"/>
       <c r="AU14" s="2"/>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV14" s="2"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="D15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="9">
         <v>3</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="F15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="9">
         <v>1</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="O15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="37" t="s">
+      <c r="P15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="Q15" s="37" t="s">
+      <c r="R15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="T15" s="37" t="s">
+      <c r="S15" s="2"/>
+      <c r="T15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="U15" s="37" t="s">
+      <c r="V15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="Z15" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="Z15" s="26"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AL15" s="2"/>
       <c r="AM15" s="26"/>
-      <c r="AN15" s="2"/>
+      <c r="AN15" s="26"/>
       <c r="AO15" s="2"/>
-      <c r="AP15" s="26"/>
+      <c r="AP15" s="2"/>
       <c r="AQ15" s="26"/>
       <c r="AR15" s="26"/>
       <c r="AS15" s="26"/>
-      <c r="AT15" s="2"/>
+      <c r="AT15" s="26"/>
       <c r="AU15" s="2"/>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV15" s="2"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="9">
         <v>3</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9">
         <v>1</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="J16" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="O16" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="36" t="s">
+      <c r="P16" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q16" s="36" t="s">
+      <c r="R16" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" s="36" t="s">
+      <c r="S16" s="2"/>
+      <c r="T16" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="U16" s="36" t="s">
+      <c r="V16" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="X16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Y16" s="4" t="s">
+      <c r="Z16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Z16" s="26"/>
-      <c r="AK16" s="2"/>
+      <c r="AA16" s="26"/>
       <c r="AL16" s="2"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="26"/>
       <c r="AO16" s="2"/>
-      <c r="AP16" s="26"/>
+      <c r="AP16" s="2"/>
       <c r="AQ16" s="26"/>
       <c r="AR16" s="26"/>
       <c r="AS16" s="26"/>
-      <c r="AT16" s="2"/>
+      <c r="AT16" s="26"/>
       <c r="AU16" s="2"/>
-    </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV16" s="2"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="D17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="9">
         <v>3</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="9">
-        <v>2</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="F17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="O17" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="36" t="s">
+      <c r="L17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q17" s="36" t="s">
+      <c r="R17" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="T17" s="36" t="s">
+      <c r="S17" s="2"/>
+      <c r="T17" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="U17" s="36" t="s">
+      <c r="V17" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="X17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="Y17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y17" s="4" t="s">
+      <c r="Z17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Z17" s="26"/>
-      <c r="AK17" s="2"/>
+      <c r="AA17" s="26"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
@@ -4758,68 +4836,74 @@
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
-      <c r="AS17" s="26"/>
-      <c r="AT17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="26"/>
       <c r="AU17" s="2"/>
-    </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV17" s="2"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="D18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="9">
         <v>3</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="9">
-        <v>2</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>30</v>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="I18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>166</v>
       </c>
       <c r="M18" t="s">
-        <v>161</v>
-      </c>
-      <c r="O18" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="Q18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="R18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="18" t="s">
+      <c r="S18" s="2"/>
+      <c r="T18" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="U18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="U18" s="6" t="s">
+      <c r="V18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W18" s="26"/>
       <c r="X18" s="26"/>
       <c r="Y18" s="26"/>
       <c r="Z18" s="26"/>
-      <c r="AB18" s="26"/>
+      <c r="AA18" s="26"/>
       <c r="AC18" s="26"/>
       <c r="AD18" s="26"/>
-      <c r="AK18" s="2"/>
+      <c r="AE18" s="26"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
@@ -4827,65 +4911,77 @@
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
-      <c r="AS18" s="26"/>
-      <c r="AT18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="26"/>
       <c r="AU18" s="2"/>
-    </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV18" s="2"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="D19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="9">
         <v>3</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="9">
-        <v>2</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="F19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="9">
+        <v>2</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="O19" s="18" t="s">
+      <c r="L19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="Q19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="R19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R19" s="2"/>
-      <c r="S19" s="18" t="s">
+      <c r="S19" s="2"/>
+      <c r="T19" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="U19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="U19" s="6" t="s">
+      <c r="V19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>176</v>
       </c>
-      <c r="Z19" s="26"/>
-      <c r="AB19" s="26"/>
+      <c r="AA19" s="26"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
-      <c r="AK19" s="2"/>
+      <c r="AE19" s="26"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
@@ -4893,44 +4989,56 @@
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
-      <c r="AS19" s="26"/>
-      <c r="AT19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="26"/>
       <c r="AU19" s="2"/>
-    </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV19" s="2"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="D20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="10">
         <v>4</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="10">
+      <c r="F20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="10">
         <v>3</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="13" t="s">
         <v>30</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="R20" s="2"/>
-      <c r="Z20" s="26"/>
-      <c r="AB20" s="26"/>
+      <c r="L20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="AA20" s="26"/>
       <c r="AC20" s="26"/>
       <c r="AD20" s="26"/>
-      <c r="AK20" s="2"/>
+      <c r="AE20" s="26"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
@@ -4938,47 +5046,50 @@
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
-      <c r="AS20" s="26"/>
-      <c r="AT20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="26"/>
       <c r="AU20" s="2"/>
-    </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV20" s="2"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="D21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="10">
         <v>4</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="F21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="10">
         <v>3</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>30</v>
+      <c r="H21" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="I21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="R21" s="2"/>
-      <c r="W21" t="s">
+      <c r="S21" s="2"/>
+      <c r="X21" t="s">
         <v>103</v>
       </c>
-      <c r="Z21" s="26"/>
-      <c r="AB21" s="4"/>
+      <c r="AA21" s="26"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
-      <c r="AK21" s="2"/>
+      <c r="AE21" s="4"/>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
@@ -4986,56 +5097,59 @@
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
-      <c r="AS21" s="26"/>
-      <c r="AT21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="26"/>
       <c r="AU21" s="2"/>
-    </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV21" s="2"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="10">
+      <c r="D22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="10">
         <v>4</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="10">
+      <c r="F22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="10">
         <v>3</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>142</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>138</v>
       </c>
-      <c r="R22" s="2"/>
-      <c r="S22" t="s">
+      <c r="S22" s="2"/>
+      <c r="T22" t="s">
         <v>143</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>138</v>
       </c>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4" t="s">
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
@@ -5043,61 +5157,64 @@
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="26"/>
       <c r="AU22" s="2"/>
-    </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV22" s="2"/>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="D23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="10">
         <v>4</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="F23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="10">
         <v>4</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>27</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>25</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>26</v>
       </c>
-      <c r="R23" s="2"/>
-      <c r="S23" t="s">
+      <c r="S23" s="2"/>
+      <c r="T23" t="s">
         <v>27</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>25</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>26</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="Y23" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
@@ -5105,58 +5222,61 @@
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2"/>
       <c r="AR23" s="2"/>
-      <c r="AS23" s="26"/>
-      <c r="AT23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="26"/>
       <c r="AU23" s="2"/>
-    </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV23" s="2"/>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="10">
+      <c r="D24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="10">
         <v>4</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="10">
+      <c r="F24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="10">
         <v>4</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="J24" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="35" t="s">
+      <c r="P24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q24" s="35" t="s">
+      <c r="R24" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="R24" s="2"/>
-      <c r="S24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T24" s="35" t="s">
+      <c r="S24" s="2"/>
+      <c r="T24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="U24" s="35" t="s">
+      <c r="V24" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
@@ -5164,58 +5284,61 @@
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2"/>
       <c r="AR24" s="2"/>
-      <c r="AS24" s="26"/>
-      <c r="AT24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="26"/>
       <c r="AU24" s="2"/>
-    </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV24" s="2"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="D25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="10">
         <v>4</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="10">
+      <c r="F25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="10">
         <v>4</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P25" s="35" t="s">
+      <c r="P25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q25" s="35" t="s">
+      <c r="R25" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="R25" s="2"/>
-      <c r="S25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T25" s="35" t="s">
+      <c r="S25" s="2"/>
+      <c r="T25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="U25" s="35" t="s">
+      <c r="V25" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
@@ -5223,31 +5346,31 @@
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
-      <c r="AS25" s="26"/>
-      <c r="AT25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="26"/>
       <c r="AU25" s="2"/>
-    </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="O26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="37" t="s">
+      <c r="AV25" s="2"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="P26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="Q26" s="37" t="s">
+      <c r="R26" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="R26" s="2"/>
-      <c r="S26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="T26" s="37" t="s">
+      <c r="S26" s="2"/>
+      <c r="T26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="U26" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="U26" s="37" t="s">
+      <c r="V26" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
@@ -5258,35 +5381,37 @@
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV26" s="2"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="26"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="26"/>
-      <c r="O27" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" s="37" t="s">
+      <c r="J27" s="26"/>
+      <c r="P27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="Q27" s="37" t="s">
+      <c r="R27" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="R27" s="2"/>
-      <c r="S27" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="T27" s="37" t="s">
+      <c r="S27" s="2"/>
+      <c r="T27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="U27" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="U27" s="37" t="s">
+      <c r="V27" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" s="2"/>
@@ -5297,35 +5422,37 @@
       <c r="AS27" s="2"/>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2"/>
-    </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="C28" s="2"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="2"/>
-      <c r="O28" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="P28" s="36" t="s">
+      <c r="AV27" s="2"/>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="P28" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Q28" s="36" t="s">
+      <c r="R28" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="R28" s="2"/>
-      <c r="S28" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="T28" s="36" t="s">
+      <c r="S28" s="2"/>
+      <c r="T28" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="U28" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="U28" s="36" t="s">
+      <c r="V28" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" s="2"/>
@@ -5336,8 +5463,10 @@
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2"/>
-    </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV28" s="2"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -5345,218 +5474,246 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="O29" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="P29" s="36" t="s">
+      <c r="J29" s="2"/>
+      <c r="P29" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q29" s="36" t="s">
+      <c r="R29" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="R29" s="2"/>
-      <c r="S29" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="T29" s="36" t="s">
+      <c r="S29" s="2"/>
+      <c r="T29" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="U29" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="U29" s="36" t="s">
+      <c r="V29" s="36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="O30" s="18" t="s">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="P30" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="Q30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Q30" s="6" t="s">
+      <c r="R30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R30" s="2"/>
-      <c r="S30" s="18" t="s">
+      <c r="S30" s="2"/>
+      <c r="T30" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="T30" s="6" t="s">
+      <c r="U30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="U30" s="6" t="s">
+      <c r="V30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AS30" s="5"/>
-    </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="O31" s="18" t="s">
+      <c r="AT30" s="5"/>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="P31" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="P31" s="6" t="s">
+      <c r="Q31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="R31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R31" s="2"/>
-      <c r="S31" s="18" t="s">
+      <c r="S31" s="2"/>
+      <c r="T31" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="T31" s="6" t="s">
+      <c r="U31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="U31" s="6" t="s">
+      <c r="V31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AS31" s="27"/>
-    </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="28"/>
-      <c r="R32" s="2"/>
-      <c r="AS32" s="28"/>
-    </row>
-    <row r="33" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="31"/>
-      <c r="AS33" s="28"/>
-    </row>
-    <row r="34" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="31"/>
-      <c r="I34" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS34" s="28"/>
-    </row>
-    <row r="35" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E35" s="29"/>
+      <c r="AT31" s="27"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="AT32" s="28"/>
+    </row>
+    <row r="33" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="AT33" s="28"/>
+    </row>
+    <row r="34" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="AT34" s="28"/>
+    </row>
+    <row r="35" spans="2:46" x14ac:dyDescent="0.2">
       <c r="F35" s="29"/>
-      <c r="G35" s="31"/>
-      <c r="AS35" s="28"/>
-    </row>
-    <row r="36" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E36" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="31"/>
+      <c r="AT35" s="28"/>
+    </row>
+    <row r="36" spans="2:46" x14ac:dyDescent="0.2">
       <c r="F36" s="29"/>
-      <c r="G36" s="28"/>
-      <c r="AS36" s="28"/>
-    </row>
-    <row r="37" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E37" s="4"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="28"/>
+      <c r="AT36" s="28"/>
+    </row>
+    <row r="37" spans="2:46" x14ac:dyDescent="0.2">
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="AS37" s="4"/>
-    </row>
-    <row r="38" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E38" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="AT37" s="4"/>
+    </row>
+    <row r="38" spans="2:46" x14ac:dyDescent="0.2">
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="AS38" s="4"/>
-    </row>
-    <row r="39" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E39" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="AT38" s="4"/>
+    </row>
+    <row r="39" spans="2:46" x14ac:dyDescent="0.2">
       <c r="F39" s="4"/>
-      <c r="G39" s="26"/>
-      <c r="AS39" s="4"/>
-    </row>
-    <row r="40" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="G40" s="33"/>
-      <c r="AS40" s="3"/>
-    </row>
-    <row r="41" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E41" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="26"/>
+      <c r="AT39" s="4"/>
+    </row>
+    <row r="40" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="H40" s="33"/>
+      <c r="AT40" s="3"/>
+    </row>
+    <row r="41" spans="2:46" x14ac:dyDescent="0.2">
       <c r="F41" s="4"/>
-      <c r="G41" s="34"/>
-      <c r="AS41" s="19"/>
-    </row>
-    <row r="42" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E42" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="34"/>
+      <c r="AT41" s="19"/>
+    </row>
+    <row r="42" spans="2:46" x14ac:dyDescent="0.2">
       <c r="F42" s="4"/>
-      <c r="G42" s="34"/>
-      <c r="AS42" s="19"/>
-    </row>
-    <row r="43" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E43" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="34"/>
+      <c r="AT42" s="19"/>
+    </row>
+    <row r="43" spans="2:46" x14ac:dyDescent="0.2">
       <c r="F43" s="4"/>
-      <c r="G43" s="34"/>
-      <c r="AS43" s="19"/>
-    </row>
-    <row r="44" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E44" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="34"/>
+      <c r="AT43" s="19"/>
+    </row>
+    <row r="44" spans="2:46" x14ac:dyDescent="0.2">
       <c r="F44" s="4"/>
-      <c r="G44" s="34"/>
-      <c r="AS44" s="19"/>
-    </row>
-    <row r="45" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E45" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="34"/>
+      <c r="AT44" s="19"/>
+    </row>
+    <row r="45" spans="2:46" x14ac:dyDescent="0.2">
       <c r="F45" s="4"/>
-      <c r="G45" s="34"/>
-      <c r="AS45" s="19"/>
-    </row>
-    <row r="46" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E46" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="34"/>
+      <c r="AT45" s="19"/>
+    </row>
+    <row r="46" spans="2:46" x14ac:dyDescent="0.2">
       <c r="F46" s="4"/>
-      <c r="G46" s="34"/>
-      <c r="AS46" s="19"/>
-    </row>
-    <row r="47" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E47" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="34"/>
+      <c r="AT46" s="19"/>
+    </row>
+    <row r="47" spans="2:46" x14ac:dyDescent="0.2">
       <c r="F47" s="4"/>
-      <c r="G47" s="34"/>
-      <c r="AS47" s="19"/>
-    </row>
-    <row r="48" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E48" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="34"/>
+      <c r="AT47" s="19"/>
+    </row>
+    <row r="48" spans="2:46" x14ac:dyDescent="0.2">
       <c r="F48" s="4"/>
-      <c r="G48" s="34"/>
-      <c r="AS48" s="19"/>
-    </row>
-    <row r="49" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E49" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="34"/>
+      <c r="AT48" s="19"/>
+    </row>
+    <row r="49" spans="6:46" x14ac:dyDescent="0.2">
       <c r="F49" s="4"/>
-      <c r="G49" s="34"/>
-      <c r="AS49" s="19"/>
-    </row>
-    <row r="50" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E50" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="34"/>
+      <c r="AT49" s="19"/>
+    </row>
+    <row r="50" spans="6:46" x14ac:dyDescent="0.2">
       <c r="F50" s="4"/>
-      <c r="G50" s="34"/>
-      <c r="AS50" s="19"/>
-    </row>
-    <row r="51" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E51" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="34"/>
+      <c r="AT50" s="19"/>
+    </row>
+    <row r="51" spans="6:46" x14ac:dyDescent="0.2">
       <c r="F51" s="4"/>
-      <c r="G51" s="34"/>
-      <c r="AS51" s="19"/>
-    </row>
-    <row r="52" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E52" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="34"/>
+      <c r="AT51" s="19"/>
+    </row>
+    <row r="52" spans="6:46" x14ac:dyDescent="0.2">
       <c r="F52" s="4"/>
-      <c r="G52" s="34"/>
-      <c r="AS52" s="19"/>
-    </row>
-    <row r="53" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="E53" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="34"/>
+      <c r="AT52" s="19"/>
+    </row>
+    <row r="53" spans="6:46" x14ac:dyDescent="0.2">
       <c r="F53" s="4"/>
-      <c r="G53" s="34"/>
-      <c r="AS53" s="19"/>
-    </row>
-    <row r="54" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="5:45" x14ac:dyDescent="0.2">
-      <c r="G56" s="2"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="34"/>
+      <c r="AT53" s="19"/>
+    </row>
+    <row r="54" spans="6:46" x14ac:dyDescent="0.2">
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="6:46" x14ac:dyDescent="0.2">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="6:46" x14ac:dyDescent="0.2">
+      <c r="H56" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
+++ b/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/CMCM JM Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69CB271-55CD-FE44-9D70-FC1F2862955C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402C823D-6F1C-4243-8E24-B6BF0423E1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="15" r:id="rId1"/>
@@ -1313,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F280014F-0359-6C4E-A6CF-E9866AFD4F4E}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+    <sheetView zoomScale="131" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -3575,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB3C47-5A75-7B42-A854-C31509C645B3}">
   <dimension ref="A1:AV56"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
+++ b/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/CMCM JM Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402C823D-6F1C-4243-8E24-B6BF0423E1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E13D997-2817-764C-9B89-D404B9987B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
   </bookViews>
@@ -617,7 +617,7 @@
     <t>PreTest Event Order</t>
   </si>
   <si>
-    <t>counterbalances the left/right placement of the pretest events (blue/organe)</t>
+    <t>counterbalances the left/right placement of the pretest events (blue/orange)</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1314,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3575,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB3C47-5A75-7B42-A854-C31509C645B3}">
   <dimension ref="A1:AV56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
+++ b/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/CMCM JM Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E13D997-2817-764C-9B89-D404B9987B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1029E5-1241-0841-B97C-D1725037B400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="15" r:id="rId1"/>
-    <sheet name="V5 current" sheetId="13" r:id="rId2"/>
-    <sheet name="V4.3" sheetId="14" r:id="rId3"/>
-    <sheet name="V4.2" sheetId="12" r:id="rId4"/>
-    <sheet name="v4.1" sheetId="11" r:id="rId5"/>
-    <sheet name="v3" sheetId="10" r:id="rId6"/>
-    <sheet name="v2.1 (separate new old)" sheetId="8" r:id="rId7"/>
-    <sheet name="v2.1 old follow new" sheetId="6" r:id="rId8"/>
-    <sheet name="v2.1 mix old-new test" sheetId="9" r:id="rId9"/>
-    <sheet name="v2" sheetId="4" r:id="rId10"/>
-    <sheet name="v1.2" sheetId="2" r:id="rId11"/>
-    <sheet name="v1" sheetId="1" r:id="rId12"/>
+    <sheet name="V6 current" sheetId="16" r:id="rId2"/>
+    <sheet name="V5" sheetId="13" r:id="rId3"/>
+    <sheet name="V4.3" sheetId="14" r:id="rId4"/>
+    <sheet name="V4.2" sheetId="12" r:id="rId5"/>
+    <sheet name="v4.1" sheetId="11" r:id="rId6"/>
+    <sheet name="v3" sheetId="10" r:id="rId7"/>
+    <sheet name="v2.1 (separate new old)" sheetId="8" r:id="rId8"/>
+    <sheet name="v2.1 old follow new" sheetId="6" r:id="rId9"/>
+    <sheet name="v2.1 mix old-new test" sheetId="9" r:id="rId10"/>
+    <sheet name="v2" sheetId="4" r:id="rId11"/>
+    <sheet name="v1.2" sheetId="2" r:id="rId12"/>
+    <sheet name="v1" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="196">
   <si>
     <t>curvilinear</t>
   </si>
@@ -618,6 +619,12 @@
   </si>
   <si>
     <t>counterbalances the left/right placement of the pretest events (blue/orange)</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Second</t>
   </si>
 </sst>
 </file>
@@ -1417,6 +1424,1428 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCDAFB7-A51C-404A-AA54-01C74E9500B7}">
+  <dimension ref="A1:Z56"/>
+  <sheetViews>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" customWidth="1"/>
+    <col min="22" max="22" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="26"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="39" x14ac:dyDescent="0.45">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="28"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="W12" s="28"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="9">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="26"/>
+      <c r="T13" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="V13" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="W13" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="10">
+        <v>4</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="26"/>
+      <c r="T14" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="V14" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="X14" s="28"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="T15" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="V15" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="10">
+        <v>4</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="V16" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="W16" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="10">
+        <v>4</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="T17" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="V17" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="W17" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="16">
+        <v>5</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="16">
+        <v>5</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="V18" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="W18" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="16">
+        <v>5</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="16">
+        <v>6</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="T19" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="V19" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="W19" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="16">
+        <v>5</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="T20" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="V20" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="16">
+        <v>5</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="16">
+        <v>2</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="T21" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="V21" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="W21" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="11">
+        <v>6</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="11">
+        <v>3</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="T22" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="U22" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="V22" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="W22" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="11">
+        <v>6</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="11">
+        <v>4</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="T23" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="U23" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="V23" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="W23" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="11">
+        <v>6</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="11">
+        <v>5</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="O24" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="T24" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="U24" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="V24" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="W24" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="11">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="11">
+        <v>6</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="T25" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="U25" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="V25" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="J30" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="K36" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="K37" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="K38" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="M38" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="2"/>
+      <c r="K39" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="M39" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="K40" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="K41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="K42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="K43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BFBD24-D664-844E-845B-5EA01EBCA697}">
   <dimension ref="A1:W27"/>
   <sheetViews>
@@ -2151,7 +3580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D0D7EB-2EB9-3E49-8A16-5719E90F24DE}">
   <dimension ref="A1:U54"/>
   <sheetViews>
@@ -2979,7 +4408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F296D44-E05E-42A5-B057-2A486BC41237}">
   <dimension ref="A1:U25"/>
   <sheetViews>
@@ -3572,11 +5001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB3C47-5A75-7B42-A854-C31509C645B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F782496A-5388-F44F-9565-126F8F16E4E1}">
   <dimension ref="A1:AV56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3693,10 +5122,10 @@
         <v>166</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>37</v>
@@ -4676,10 +6105,10 @@
         <v>58</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="AA15" s="26"/>
       <c r="AL15" s="2"/>
@@ -4976,6 +6405,2152 @@
         <v>57</v>
       </c>
       <c r="X19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="26"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="10">
+        <v>3</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="Y20" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="26"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="10">
+        <v>4</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="10">
+        <v>3</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="Y21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA21" s="26"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="26"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="10">
+        <v>4</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="10">
+        <v>3</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="P22" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>138</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" t="s">
+        <v>143</v>
+      </c>
+      <c r="U22" t="s">
+        <v>138</v>
+      </c>
+      <c r="X22" s="4"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="10">
+        <v>4</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="10">
+        <v>4</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>25</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" t="s">
+        <v>27</v>
+      </c>
+      <c r="U23" t="s">
+        <v>25</v>
+      </c>
+      <c r="V23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="26"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="10">
+        <v>4</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="R24" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="V24" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="10">
+        <v>4</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="10">
+        <v>4</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="R25" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="V25" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="26"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="P26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="R26" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="U26" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="V26" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="P27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="R27" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="U27" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="V27" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="P28" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="R28" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="U28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="V28" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="P29" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="R29" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="U29" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="V29" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="P30" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT30" s="5"/>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="P31" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT31" s="27"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="AT32" s="28"/>
+    </row>
+    <row r="33" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="AT33" s="28"/>
+    </row>
+    <row r="34" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="AT34" s="28"/>
+    </row>
+    <row r="35" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="31"/>
+      <c r="AT35" s="28"/>
+    </row>
+    <row r="36" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="28"/>
+      <c r="AT36" s="28"/>
+    </row>
+    <row r="37" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="AT37" s="4"/>
+    </row>
+    <row r="38" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="AT38" s="4"/>
+    </row>
+    <row r="39" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="26"/>
+      <c r="AT39" s="4"/>
+    </row>
+    <row r="40" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="H40" s="33"/>
+      <c r="AT40" s="3"/>
+    </row>
+    <row r="41" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="34"/>
+      <c r="AT41" s="19"/>
+    </row>
+    <row r="42" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="34"/>
+      <c r="AT42" s="19"/>
+    </row>
+    <row r="43" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="34"/>
+      <c r="AT43" s="19"/>
+    </row>
+    <row r="44" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="34"/>
+      <c r="AT44" s="19"/>
+    </row>
+    <row r="45" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="34"/>
+      <c r="AT45" s="19"/>
+    </row>
+    <row r="46" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="34"/>
+      <c r="AT46" s="19"/>
+    </row>
+    <row r="47" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="34"/>
+      <c r="AT47" s="19"/>
+    </row>
+    <row r="48" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="34"/>
+      <c r="AT48" s="19"/>
+    </row>
+    <row r="49" spans="6:46" x14ac:dyDescent="0.2">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="34"/>
+      <c r="AT49" s="19"/>
+    </row>
+    <row r="50" spans="6:46" x14ac:dyDescent="0.2">
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="34"/>
+      <c r="AT50" s="19"/>
+    </row>
+    <row r="51" spans="6:46" x14ac:dyDescent="0.2">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="34"/>
+      <c r="AT51" s="19"/>
+    </row>
+    <row r="52" spans="6:46" x14ac:dyDescent="0.2">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="34"/>
+      <c r="AT52" s="19"/>
+    </row>
+    <row r="53" spans="6:46" x14ac:dyDescent="0.2">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="34"/>
+      <c r="AT53" s="19"/>
+    </row>
+    <row r="54" spans="6:46" x14ac:dyDescent="0.2">
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="6:46" x14ac:dyDescent="0.2">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="6:46" x14ac:dyDescent="0.2">
+      <c r="H56" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB3C47-5A75-7B42-A854-C31509C645B3}">
+  <dimension ref="A1:AV56"/>
+  <sheetViews>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" customWidth="1"/>
+    <col min="30" max="30" width="13" customWidth="1"/>
+    <col min="46" max="46" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="U1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A2" s="52">
+        <v>1</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="52">
+        <v>1</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="52">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A3" s="52">
+        <v>2</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="52">
+        <v>1</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="52">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>8</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>7</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A4" s="52">
+        <v>3</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="52">
+        <v>1</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="52">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>7</v>
+      </c>
+      <c r="AD4">
+        <v>5</v>
+      </c>
+      <c r="AE4">
+        <v>8</v>
+      </c>
+      <c r="AF4">
+        <v>6</v>
+      </c>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A5" s="52">
+        <v>4</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="52">
+        <v>1</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="52">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>7</v>
+      </c>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A6" s="52">
+        <v>5</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="52">
+        <v>1</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="52">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="P6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>3</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>5</v>
+      </c>
+      <c r="AD6">
+        <v>6</v>
+      </c>
+      <c r="AE6">
+        <v>7</v>
+      </c>
+      <c r="AF6">
+        <v>8</v>
+      </c>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A7" s="52">
+        <v>6</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="52">
+        <v>1</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="52">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="26"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+    </row>
+    <row r="8" spans="1:48" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="53">
+        <v>7</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="53">
+        <v>2</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="53">
+        <v>3</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="26"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A9" s="53">
+        <v>8</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="53">
+        <v>2</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="53">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A10" s="53">
+        <v>9</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="53">
+        <v>2</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="53">
+        <v>3</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="P10" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" t="s">
+        <v>143</v>
+      </c>
+      <c r="U10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A11" s="53">
+        <v>10</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="53">
+        <v>2</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="53">
+        <v>4</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V11" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A12" s="53">
+        <v>11</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="53">
+        <v>2</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="53">
+        <v>4</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="V12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="26"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A13" s="53">
+        <v>12</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="53">
+        <v>2</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="53">
+        <v>4</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="V13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="V14" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="26"/>
+      <c r="AS14" s="26"/>
+      <c r="AT14" s="26"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="9">
+        <v>3</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="V15" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA15" s="26"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="26"/>
+      <c r="AT15" s="26"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="9">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="V16" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA16" s="26"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="26"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="V17" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA17" s="26"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="9">
+        <v>3</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="9">
+        <v>2</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X19" t="s">
         <v>176</v>
       </c>
       <c r="AA19" s="26"/>
@@ -5721,7 +9296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3FA6-040E-8F44-9CCF-7CCC90B2E7C6}">
   <dimension ref="A1:AS56"/>
   <sheetViews>
@@ -9188,7 +12763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A079066B-042E-E347-BE5A-228BE2AE89CB}">
   <dimension ref="A1:AS56"/>
   <sheetViews>
@@ -11001,7 +14576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F555E07E-282B-A54A-A5AF-7C958A3EDCB6}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
@@ -12731,7 +16306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493C1F41-1547-F04C-8D7A-FEAB418C075C}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
@@ -13954,7 +17529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FCCC63-1166-9842-ACF7-083B1F0C4B9C}">
   <dimension ref="A1:AB56"/>
   <sheetViews>
@@ -15343,7 +18918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBAF6DF-2E1E-4042-B768-F8E653EEB5F3}">
   <dimension ref="A1:AB56"/>
   <sheetViews>
@@ -16650,1426 +20225,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCDAFB7-A51C-404A-AA54-01C74E9500B7}">
-  <dimension ref="A1:Z56"/>
-  <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="26"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="7">
-        <v>4</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="8">
-        <v>6</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="V7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="W7" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2</v>
-      </c>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="9">
-        <v>3</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="39" x14ac:dyDescent="0.45">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="9">
-        <v>3</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="9">
-        <v>4</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="K11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="W11" s="28"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="9">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" t="s">
-        <v>78</v>
-      </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="W12" s="28"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="9">
-        <v>3</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="9">
-        <v>6</v>
-      </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="S13" s="26"/>
-      <c r="T13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="V13" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="W13" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="10">
-        <v>4</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="O14" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P14" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="S14" s="26"/>
-      <c r="T14" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="V14" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="W14" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="X14" s="28"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="10">
-        <v>4</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="10">
-        <v>2</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="T15" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="U15" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="V15" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="W15" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="10">
-        <v>4</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="10">
-        <v>3</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q16" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="T16" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="U16" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="V16" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="W16" s="38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="10">
-        <v>4</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="10">
-        <v>4</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q17" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="T17" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="U17" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="V17" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="W17" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
-        <v>17</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="16">
-        <v>5</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="16">
-        <v>5</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="O18" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q18" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="T18" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="U18" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="V18" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="W18" s="37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="16">
-        <v>5</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="16">
-        <v>6</v>
-      </c>
-      <c r="K19" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="M19" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="O19" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="T19" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="U19" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="V19" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="W19" s="39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
-        <v>19</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="16">
-        <v>5</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="16">
-        <v>1</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="T20" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="U20" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="V20" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="W20" s="37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
-        <v>20</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="16">
-        <v>5</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="16">
-        <v>2</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="O21" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q21" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="T21" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="U21" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="V21" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="W21" s="39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="11">
-        <v>6</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="11">
-        <v>3</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="O22" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q22" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="T22" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="U22" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="V22" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="W22" s="40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="11">
-        <v>6</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="11">
-        <v>4</v>
-      </c>
-      <c r="K23" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="O23" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="P23" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q23" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="T23" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="U23" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="V23" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="W23" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="11">
-        <v>6</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="11">
-        <v>5</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="M24" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="O24" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q24" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="T24" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="U24" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="V24" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="W24" s="40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="11">
-        <v>6</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="11">
-        <v>6</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="O25" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="P25" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q25" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="T25" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="U25" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="V25" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="W25" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="J30" t="s">
-        <v>95</v>
-      </c>
-      <c r="K30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="K31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="K32" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="K33" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="K34" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="K35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="K36" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M36" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="K37" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M37" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="K38" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="M38" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="2"/>
-      <c r="K39" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="M39" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="K40" t="s">
-        <v>30</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="K41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="K42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="K43" t="s">
-        <v>30</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
+++ b/CMCM Lab Associative Learning Study Counterbalacing (1).xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoanneMiao/Desktop/CMCM JM Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1029E5-1241-0841-B97C-D1725037B400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285767FF-CF0D-D24B-9281-B7C95B1AC3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{417284C1-A0D2-4539-9F2E-FC16F8FBD9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="15" r:id="rId1"/>
-    <sheet name="V6 current" sheetId="16" r:id="rId2"/>
-    <sheet name="V5" sheetId="13" r:id="rId3"/>
-    <sheet name="V4.3" sheetId="14" r:id="rId4"/>
-    <sheet name="V4.2" sheetId="12" r:id="rId5"/>
-    <sheet name="v4.1" sheetId="11" r:id="rId6"/>
-    <sheet name="v3" sheetId="10" r:id="rId7"/>
-    <sheet name="v2.1 (separate new old)" sheetId="8" r:id="rId8"/>
-    <sheet name="v2.1 old follow new" sheetId="6" r:id="rId9"/>
-    <sheet name="v2.1 mix old-new test" sheetId="9" r:id="rId10"/>
-    <sheet name="v2" sheetId="4" r:id="rId11"/>
-    <sheet name="v1.2" sheetId="2" r:id="rId12"/>
-    <sheet name="v1" sheetId="1" r:id="rId13"/>
+    <sheet name="V7 current" sheetId="17" r:id="rId2"/>
+    <sheet name="V6" sheetId="16" r:id="rId3"/>
+    <sheet name="V5" sheetId="13" r:id="rId4"/>
+    <sheet name="V4.3" sheetId="14" r:id="rId5"/>
+    <sheet name="V4.2" sheetId="12" r:id="rId6"/>
+    <sheet name="v4.1" sheetId="11" r:id="rId7"/>
+    <sheet name="v3" sheetId="10" r:id="rId8"/>
+    <sheet name="v2.1 (separate new old)" sheetId="8" r:id="rId9"/>
+    <sheet name="v2.1 old follow new" sheetId="6" r:id="rId10"/>
+    <sheet name="v2.1 mix old-new test" sheetId="9" r:id="rId11"/>
+    <sheet name="v2" sheetId="4" r:id="rId12"/>
+    <sheet name="v1.2" sheetId="2" r:id="rId13"/>
+    <sheet name="v1" sheetId="1" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="196">
   <si>
     <t>curvilinear</t>
   </si>
@@ -701,7 +702,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,6 +835,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -847,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1003,6 +1010,9 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1424,6 +1434,1315 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBAF6DF-2E1E-4042-B768-F8E653EEB5F3}">
+  <dimension ref="A1:AB56"/>
+  <sheetViews>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" customWidth="1"/>
+    <col min="22" max="22" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="26"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AB8" s="28"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="26"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="26"/>
+      <c r="U13" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="10">
+        <v>4</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="26"/>
+      <c r="U14" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="10">
+        <v>4</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="16">
+        <v>5</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="16">
+        <v>5</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="16">
+        <v>5</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="16">
+        <v>5</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="11">
+        <v>6</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="11">
+        <v>6</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="11">
+        <v>6</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="O24" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="11">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="J30" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="K36" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="K37" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="K38" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="M38" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="2"/>
+      <c r="K39" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="M39" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="K40" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="K41" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="K42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="K43" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCDAFB7-A51C-404A-AA54-01C74E9500B7}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
@@ -2845,7 +4164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BFBD24-D664-844E-845B-5EA01EBCA697}">
   <dimension ref="A1:W27"/>
   <sheetViews>
@@ -3580,7 +4899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D0D7EB-2EB9-3E49-8A16-5719E90F24DE}">
   <dimension ref="A1:U54"/>
   <sheetViews>
@@ -4408,7 +5727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F296D44-E05E-42A5-B057-2A486BC41237}">
   <dimension ref="A1:U25"/>
   <sheetViews>
@@ -5001,11 +6320,1944 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C1E758-A916-E14B-ADDA-5F19F4648A93}">
+  <dimension ref="A1:AT56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" customWidth="1"/>
+    <col min="28" max="28" width="13" customWidth="1"/>
+    <col min="44" max="44" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A2" s="52">
+        <v>1</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="52">
+        <v>1</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="52">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A3" s="52">
+        <v>2</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="52">
+        <v>1</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="52">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="6">
+        <v>1</v>
+      </c>
+      <c r="X3" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A4" s="52">
+        <v>3</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="52">
+        <v>1</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="52">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>7</v>
+      </c>
+      <c r="AB4">
+        <v>5</v>
+      </c>
+      <c r="AC4">
+        <v>8</v>
+      </c>
+      <c r="AD4">
+        <v>6</v>
+      </c>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A5" s="52">
+        <v>4</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="52">
+        <v>1</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="52">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="6">
+        <v>3</v>
+      </c>
+      <c r="X5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>7</v>
+      </c>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="26"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A6" s="52">
+        <v>5</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="52">
+        <v>1</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="52">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AB6">
+        <v>6</v>
+      </c>
+      <c r="AC6">
+        <v>7</v>
+      </c>
+      <c r="AD6">
+        <v>8</v>
+      </c>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A7" s="52">
+        <v>6</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="52">
+        <v>1</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="52">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="26"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+    </row>
+    <row r="8" spans="1:46" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="53">
+        <v>7</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="53">
+        <v>2</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="53">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="26"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A9" s="53">
+        <v>8</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="53">
+        <v>2</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="53">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A10" s="53">
+        <v>9</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="53">
+        <v>2</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="53">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" t="s">
+        <v>142</v>
+      </c>
+      <c r="O10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R10" t="s">
+        <v>143</v>
+      </c>
+      <c r="S10" t="s">
+        <v>126</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A11" s="53">
+        <v>10</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="53">
+        <v>2</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="53">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" t="s">
+        <v>26</v>
+      </c>
+      <c r="V11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A12" s="53">
+        <v>11</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="53">
+        <v>2</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="53">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A13" s="53">
+        <v>12</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="53">
+        <v>2</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="53">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="T14" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="26"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y15" s="26"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="T16" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y16" s="26"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="T17" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y17" s="26"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="9">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="V19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="26"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10">
+        <v>4</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="10">
+        <v>3</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="W20" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="26"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="10">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="10">
+        <v>3</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="W21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y21" s="26"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="26"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="10">
+        <v>4</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="10">
+        <v>3</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" t="s">
+        <v>142</v>
+      </c>
+      <c r="O22" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s">
+        <v>143</v>
+      </c>
+      <c r="S22" t="s">
+        <v>138</v>
+      </c>
+      <c r="V22" s="4"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="10">
+        <v>4</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="10">
+        <v>4</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" t="s">
+        <v>25</v>
+      </c>
+      <c r="T23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="26"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="10">
+        <v>4</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="10">
+        <v>4</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T24" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="10">
+        <v>4</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="10">
+        <v>4</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T25" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="26"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="N26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="T26" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="26"/>
+      <c r="N27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="T27" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="26"/>
+      <c r="N28" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="T28" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="N29" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="T29" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="2"/>
+      <c r="N30" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR30" s="5"/>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="2"/>
+      <c r="N31" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR31" s="27"/>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="AR32" s="28"/>
+    </row>
+    <row r="33" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="2"/>
+      <c r="AR33" s="28"/>
+    </row>
+    <row r="34" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="2"/>
+      <c r="AR34" s="28"/>
+    </row>
+    <row r="35" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="31"/>
+      <c r="AR35" s="28"/>
+    </row>
+    <row r="36" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="28"/>
+      <c r="AR36" s="28"/>
+    </row>
+    <row r="37" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="AR37" s="4"/>
+    </row>
+    <row r="38" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="AR38" s="4"/>
+    </row>
+    <row r="39" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="26"/>
+      <c r="AR39" s="4"/>
+    </row>
+    <row r="40" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="G40" s="33"/>
+      <c r="AR40" s="3"/>
+    </row>
+    <row r="41" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="34"/>
+      <c r="AR41" s="19"/>
+    </row>
+    <row r="42" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="34"/>
+      <c r="AR42" s="19"/>
+    </row>
+    <row r="43" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="34"/>
+      <c r="AR43" s="19"/>
+    </row>
+    <row r="44" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="34"/>
+      <c r="AR44" s="19"/>
+    </row>
+    <row r="45" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="34"/>
+      <c r="AR45" s="19"/>
+    </row>
+    <row r="46" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="34"/>
+      <c r="AR46" s="19"/>
+    </row>
+    <row r="47" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="34"/>
+      <c r="AR47" s="19"/>
+    </row>
+    <row r="48" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="34"/>
+      <c r="AR48" s="19"/>
+    </row>
+    <row r="49" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="34"/>
+      <c r="AR49" s="19"/>
+    </row>
+    <row r="50" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="34"/>
+      <c r="AR50" s="19"/>
+    </row>
+    <row r="51" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="34"/>
+      <c r="AR51" s="19"/>
+    </row>
+    <row r="52" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="34"/>
+      <c r="AR52" s="19"/>
+    </row>
+    <row r="53" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="34"/>
+      <c r="AR53" s="19"/>
+    </row>
+    <row r="54" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="5:44" x14ac:dyDescent="0.2">
+      <c r="G56" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F782496A-5388-F44F-9565-126F8F16E4E1}">
   <dimension ref="A1:AV56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25"/>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5042,7 +8294,7 @@
       <c r="B1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="72" t="s">
         <v>164</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -5063,7 +8315,7 @@
       <c r="I1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="72" t="s">
         <v>165</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -7146,11 +10398,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB3C47-5A75-7B42-A854-C31509C645B3}">
   <dimension ref="A1:AV56"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="109" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -9296,7 +12548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC3FA6-040E-8F44-9CCF-7CCC90B2E7C6}">
   <dimension ref="A1:AS56"/>
   <sheetViews>
@@ -12763,7 +16015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A079066B-042E-E347-BE5A-228BE2AE89CB}">
   <dimension ref="A1:AS56"/>
   <sheetViews>
@@ -14576,7 +17828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F555E07E-282B-A54A-A5AF-7C958A3EDCB6}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
@@ -16306,7 +19558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493C1F41-1547-F04C-8D7A-FEAB418C075C}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
@@ -17529,7 +20781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FCCC63-1166-9842-ACF7-083B1F0C4B9C}">
   <dimension ref="A1:AB56"/>
   <sheetViews>
@@ -18916,1313 +22168,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBAF6DF-2E1E-4042-B768-F8E653EEB5F3}">
-  <dimension ref="A1:AB56"/>
-  <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="V4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="26"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="K8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AB8" s="28"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="V9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="26"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="9">
-        <v>3</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="T10" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W10" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="9">
-        <v>3</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="K11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" t="s">
-        <v>78</v>
-      </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="9">
-        <v>3</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="S13" s="26"/>
-      <c r="U13" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="10">
-        <v>4</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="O14" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P14" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="S14" s="26"/>
-      <c r="U14" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="10">
-        <v>4</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>117</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="10">
-        <v>4</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q16" s="38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="10">
-        <v>4</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q17" s="38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
-        <v>17</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="16">
-        <v>5</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="O18" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q18" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="16">
-        <v>5</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="M19" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="O19" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
-        <v>19</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="16">
-        <v>5</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
-        <v>20</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="16">
-        <v>5</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="O21" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q21" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="11">
-        <v>6</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="O22" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q22" s="40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="11">
-        <v>6</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="O23" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="P23" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q23" s="40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="11">
-        <v>6</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="M24" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="O24" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q24" s="40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="11">
-        <v>6</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="O25" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="P25" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q25" s="40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="J30" t="s">
-        <v>95</v>
-      </c>
-      <c r="K30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="K31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="K32" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="K33" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="K34" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="K35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="K36" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M36" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="K37" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M37" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="K38" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="M38" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="2"/>
-      <c r="K39" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="M39" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="K40" t="s">
-        <v>30</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="K41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="K42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="K43" t="s">
-        <v>30</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>